--- a/Forecast_W47.xlsx
+++ b/Forecast_W47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Forecast_APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CE96BC-640F-459A-94F4-DE1ED4BDC061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609DA57-C45D-4AA7-8EFC-ACD6482B2FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4900'!$A$1:$P$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5000'!$A$1:$O$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$7:$I$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIM!$A$1:$AC$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIM!$A$1:$AD$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Data!$A$1:$H$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SIM!$A$1:$X$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SIM!$A$1:$Y$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="282">
   <si>
     <t>Part no.</t>
   </si>
@@ -906,6 +906,12 @@
   </si>
   <si>
     <t>WK46</t>
+  </si>
+  <si>
+    <t>Part_No</t>
+  </si>
+  <si>
+    <t>WK45</t>
   </si>
 </sst>
 </file>
@@ -915,7 +921,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1310,7 +1316,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1883,13 +1889,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:J57"/>
+      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,17 +1905,17 @@
     <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" style="6" customWidth="1"/>
     <col min="5" max="7" width="8.44140625" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="8.44140625" style="53" customWidth="1"/>
-    <col min="11" max="24" width="10.33203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="9" style="64" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="45.88671875" style="57" customWidth="1"/>
-    <col min="27" max="27" width="9.109375" style="12" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="13"/>
+    <col min="8" max="11" width="8.44140625" style="53" customWidth="1"/>
+    <col min="12" max="25" width="10.33203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="9" style="64" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="45.88671875" style="57" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="12" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>2</v>
@@ -1933,58 +1939,61 @@
         <v>259</v>
       </c>
       <c r="I1" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="K1" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="S1" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="T1" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="T1" s="69" t="s">
+      <c r="U1" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="V1" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="69" t="s">
+      <c r="W1" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="W1" s="69" t="s">
+      <c r="X1" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="X1" s="70" t="s">
+      <c r="Y1" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="30"/>
-    </row>
-    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="30"/>
+    </row>
+    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>36</v>
       </c>
@@ -2013,7 +2022,7 @@
       <c r="J2" s="55">
         <v>0</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="55">
         <v>0</v>
       </c>
       <c r="L2" s="75">
@@ -2052,16 +2061,19 @@
       <c r="W2" s="75">
         <v>0</v>
       </c>
-      <c r="X2" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="66">
+      <c r="X2" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="12"/>
-    </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="12"/>
+    </row>
+    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>38</v>
       </c>
@@ -2090,7 +2102,7 @@
       <c r="J3" s="55">
         <v>0</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="55">
         <v>0</v>
       </c>
       <c r="L3" s="75">
@@ -2129,16 +2141,19 @@
       <c r="W3" s="75">
         <v>0</v>
       </c>
-      <c r="X3" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="66">
+      <c r="X3" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="12"/>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="12"/>
+    </row>
+    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>21</v>
       </c>
@@ -2167,7 +2182,7 @@
       <c r="J4" s="55">
         <v>0</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="55">
         <v>0</v>
       </c>
       <c r="L4" s="75">
@@ -2206,16 +2221,19 @@
       <c r="W4" s="75">
         <v>0</v>
       </c>
-      <c r="X4" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="66">
+      <c r="X4" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="12"/>
-    </row>
-    <row r="5" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="12"/>
+    </row>
+    <row r="5" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>26</v>
       </c>
@@ -2244,12 +2262,12 @@
       <c r="J5" s="55">
         <v>0</v>
       </c>
-      <c r="K5" s="75">
+      <c r="K5" s="55">
+        <v>0</v>
+      </c>
+      <c r="L5" s="75">
         <v>28</v>
       </c>
-      <c r="L5" s="75">
-        <v>0</v>
-      </c>
       <c r="M5" s="75">
         <v>0</v>
       </c>
@@ -2283,19 +2301,22 @@
       <c r="W5" s="75">
         <v>0</v>
       </c>
-      <c r="X5" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="66">
+      <c r="X5" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="13"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="12"/>
       <c r="AD5" s="13"/>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE5" s="13"/>
+    </row>
+    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>27</v>
       </c>
@@ -2324,7 +2345,7 @@
       <c r="J6" s="55">
         <v>0</v>
       </c>
-      <c r="K6" s="75">
+      <c r="K6" s="55">
         <v>0</v>
       </c>
       <c r="L6" s="75">
@@ -2363,16 +2384,19 @@
       <c r="W6" s="75">
         <v>0</v>
       </c>
-      <c r="X6" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="66">
+      <c r="X6" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="12"/>
-    </row>
-    <row r="7" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="12"/>
+    </row>
+    <row r="7" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
@@ -2401,27 +2425,27 @@
       <c r="J7" s="55">
         <v>0</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="55">
         <v>0</v>
       </c>
       <c r="L7" s="75">
+        <v>0</v>
+      </c>
+      <c r="M7" s="75">
         <v>28</v>
       </c>
-      <c r="M7" s="75">
+      <c r="N7" s="75">
         <v>56</v>
       </c>
-      <c r="N7" s="75">
+      <c r="O7" s="75">
         <v>28</v>
       </c>
-      <c r="O7" s="75">
-        <v>0</v>
-      </c>
       <c r="P7" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="75">
         <v>28</v>
       </c>
-      <c r="Q7" s="75">
-        <v>0</v>
-      </c>
       <c r="R7" s="75">
         <v>0</v>
       </c>
@@ -2432,27 +2456,30 @@
         <v>0</v>
       </c>
       <c r="U7" s="75">
+        <v>0</v>
+      </c>
+      <c r="V7" s="75">
         <v>28</v>
       </c>
-      <c r="V7" s="75">
-        <v>0</v>
-      </c>
       <c r="W7" s="75">
         <v>0</v>
       </c>
-      <c r="X7" s="76">
+      <c r="X7" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="76">
         <v>28</v>
       </c>
-      <c r="Y7" s="66">
+      <c r="Z7" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="13"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="12"/>
       <c r="AD7" s="13"/>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE7" s="13"/>
+    </row>
+    <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>29</v>
       </c>
@@ -2481,7 +2508,7 @@
       <c r="J8" s="55">
         <v>0</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="55">
         <v>0</v>
       </c>
       <c r="L8" s="75">
@@ -2520,16 +2547,19 @@
       <c r="W8" s="75">
         <v>0</v>
       </c>
-      <c r="X8" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="66">
+      <c r="X8" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="12"/>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="12"/>
+    </row>
+    <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>54</v>
       </c>
@@ -2556,7 +2586,7 @@
       <c r="J9" s="55">
         <v>0</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="55">
         <v>0</v>
       </c>
       <c r="L9" s="75">
@@ -2595,16 +2625,19 @@
       <c r="W9" s="75">
         <v>0</v>
       </c>
-      <c r="X9" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="66">
+      <c r="X9" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="12"/>
+    </row>
+    <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>56</v>
       </c>
@@ -2633,7 +2666,7 @@
       <c r="J10" s="55">
         <v>0</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="55">
         <v>0</v>
       </c>
       <c r="L10" s="75">
@@ -2672,16 +2705,19 @@
       <c r="W10" s="75">
         <v>0</v>
       </c>
-      <c r="X10" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="66">
+      <c r="X10" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="12"/>
-    </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="12"/>
+    </row>
+    <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>62</v>
       </c>
@@ -2710,7 +2746,7 @@
       <c r="J11" s="55">
         <v>0</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="55">
         <v>0</v>
       </c>
       <c r="L11" s="75">
@@ -2749,16 +2785,19 @@
       <c r="W11" s="75">
         <v>0</v>
       </c>
-      <c r="X11" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="66">
+      <c r="X11" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="12"/>
+    </row>
+    <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>63</v>
       </c>
@@ -2787,7 +2826,7 @@
       <c r="J12" s="55">
         <v>0</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="55">
         <v>0</v>
       </c>
       <c r="L12" s="75">
@@ -2826,16 +2865,19 @@
       <c r="W12" s="75">
         <v>0</v>
       </c>
-      <c r="X12" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="66">
+      <c r="X12" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="12"/>
-    </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="12"/>
+    </row>
+    <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>68</v>
       </c>
@@ -2864,7 +2906,7 @@
       <c r="J13" s="55">
         <v>0</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="55">
         <v>0</v>
       </c>
       <c r="L13" s="75">
@@ -2903,16 +2945,19 @@
       <c r="W13" s="75">
         <v>0</v>
       </c>
-      <c r="X13" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="66">
+      <c r="X13" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="12"/>
+    </row>
+    <row r="14" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>246</v>
       </c>
@@ -2941,7 +2986,7 @@
       <c r="J14" s="55">
         <v>0</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="55">
         <v>0</v>
       </c>
       <c r="L14" s="75">
@@ -2951,14 +2996,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="75">
+        <v>0</v>
+      </c>
+      <c r="O14" s="75">
         <v>72</v>
       </c>
-      <c r="O14" s="75">
+      <c r="P14" s="75">
         <v>144</v>
       </c>
-      <c r="P14" s="75">
-        <v>0</v>
-      </c>
       <c r="Q14" s="75">
         <v>0</v>
       </c>
@@ -2972,27 +3017,30 @@
         <v>0</v>
       </c>
       <c r="U14" s="75">
+        <v>0</v>
+      </c>
+      <c r="V14" s="75">
         <v>144</v>
       </c>
-      <c r="V14" s="75">
-        <v>0</v>
-      </c>
       <c r="W14" s="75">
         <v>0</v>
       </c>
-      <c r="X14" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="66">
+      <c r="X14" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z14" s="74" t="s">
+      <c r="AA14" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="12"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="12"/>
+    </row>
+    <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>247</v>
       </c>
@@ -3021,7 +3069,7 @@
       <c r="J15" s="55">
         <v>0</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="55">
         <v>0</v>
       </c>
       <c r="L15" s="75">
@@ -3031,14 +3079,14 @@
         <v>0</v>
       </c>
       <c r="N15" s="75">
+        <v>0</v>
+      </c>
+      <c r="O15" s="75">
         <v>72</v>
       </c>
-      <c r="O15" s="75">
+      <c r="P15" s="75">
         <v>144</v>
       </c>
-      <c r="P15" s="75">
-        <v>0</v>
-      </c>
       <c r="Q15" s="75">
         <v>0</v>
       </c>
@@ -3052,27 +3100,30 @@
         <v>0</v>
       </c>
       <c r="U15" s="75">
+        <v>0</v>
+      </c>
+      <c r="V15" s="75">
         <v>144</v>
       </c>
-      <c r="V15" s="75">
-        <v>0</v>
-      </c>
       <c r="W15" s="75">
         <v>0</v>
       </c>
-      <c r="X15" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="66">
+      <c r="X15" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z15" s="74" t="s">
+      <c r="AA15" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="12"/>
+    </row>
+    <row r="16" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>23</v>
       </c>
@@ -3101,33 +3152,33 @@
       <c r="J16" s="55">
         <v>0</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="55">
         <v>0</v>
       </c>
       <c r="L16" s="75">
         <v>0</v>
       </c>
       <c r="M16" s="75">
+        <v>0</v>
+      </c>
+      <c r="N16" s="75">
         <v>56</v>
       </c>
-      <c r="N16" s="75">
-        <v>0</v>
-      </c>
       <c r="O16" s="75">
         <v>0</v>
       </c>
       <c r="P16" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="75">
         <v>56</v>
       </c>
-      <c r="Q16" s="75">
-        <v>0</v>
-      </c>
       <c r="R16" s="75">
+        <v>0</v>
+      </c>
+      <c r="S16" s="75">
         <v>56</v>
       </c>
-      <c r="S16" s="75">
-        <v>0</v>
-      </c>
       <c r="T16" s="75">
         <v>0</v>
       </c>
@@ -3140,19 +3191,22 @@
       <c r="W16" s="75">
         <v>0</v>
       </c>
-      <c r="X16" s="76">
+      <c r="X16" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="76">
         <v>56</v>
       </c>
-      <c r="Y16" s="66">
+      <c r="Z16" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="13"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="12"/>
       <c r="AD16" s="13"/>
-    </row>
-    <row r="17" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="13"/>
+    </row>
+    <row r="17" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>22</v>
       </c>
@@ -3181,24 +3235,24 @@
       <c r="J17" s="55">
         <v>0</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="55">
         <v>0</v>
       </c>
       <c r="L17" s="75">
+        <v>0</v>
+      </c>
+      <c r="M17" s="75">
         <v>168</v>
       </c>
-      <c r="M17" s="75">
+      <c r="N17" s="75">
         <v>28</v>
       </c>
-      <c r="N17" s="75">
-        <v>0</v>
-      </c>
       <c r="O17" s="75">
+        <v>0</v>
+      </c>
+      <c r="P17" s="75">
         <v>168</v>
       </c>
-      <c r="P17" s="75">
-        <v>0</v>
-      </c>
       <c r="Q17" s="75">
         <v>0</v>
       </c>
@@ -3215,24 +3269,27 @@
         <v>0</v>
       </c>
       <c r="V17" s="75">
+        <v>0</v>
+      </c>
+      <c r="W17" s="75">
         <v>112</v>
       </c>
-      <c r="W17" s="75">
-        <v>0</v>
-      </c>
-      <c r="X17" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="66">
+      <c r="X17" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="13"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="12"/>
       <c r="AD17" s="13"/>
-    </row>
-    <row r="18" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE17" s="13"/>
+    </row>
+    <row r="18" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>24</v>
       </c>
@@ -3263,7 +3320,7 @@
       <c r="J18" s="55">
         <v>0</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="55">
         <v>0</v>
       </c>
       <c r="L18" s="75">
@@ -3302,19 +3359,22 @@
       <c r="W18" s="75">
         <v>0</v>
       </c>
-      <c r="X18" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="66">
+      <c r="X18" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="13"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="12"/>
       <c r="AD18" s="13"/>
-    </row>
-    <row r="19" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE18" s="13"/>
+    </row>
+    <row r="19" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>16</v>
       </c>
@@ -3343,26 +3403,26 @@
       <c r="J19" s="55">
         <v>0</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="55">
         <v>0</v>
       </c>
       <c r="L19" s="75">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="M19" s="75">
         <v>196</v>
       </c>
       <c r="N19" s="75">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="O19" s="75">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="P19" s="75">
         <v>112</v>
       </c>
       <c r="Q19" s="75">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="R19" s="75">
         <v>0</v>
@@ -3374,27 +3434,30 @@
         <v>0</v>
       </c>
       <c r="U19" s="75">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="V19" s="75">
         <v>112</v>
       </c>
       <c r="W19" s="75">
+        <v>112</v>
+      </c>
+      <c r="X19" s="75">
         <v>196</v>
       </c>
-      <c r="X19" s="76">
+      <c r="Y19" s="76">
         <v>308</v>
       </c>
-      <c r="Y19" s="66">
+      <c r="Z19" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="13"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="12"/>
       <c r="AD19" s="13"/>
-    </row>
-    <row r="20" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE19" s="13"/>
+    </row>
+    <row r="20" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>25</v>
       </c>
@@ -3423,7 +3486,7 @@
       <c r="J20" s="55">
         <v>0</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="55">
         <v>0</v>
       </c>
       <c r="L20" s="75">
@@ -3436,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="75">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="P20" s="75">
         <v>56</v>
       </c>
       <c r="Q20" s="75">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="R20" s="75">
         <v>0</v>
@@ -3451,27 +3514,30 @@
         <v>0</v>
       </c>
       <c r="T20" s="75">
+        <v>0</v>
+      </c>
+      <c r="U20" s="75">
         <v>56</v>
       </c>
-      <c r="U20" s="75">
+      <c r="V20" s="75">
         <v>28</v>
       </c>
-      <c r="V20" s="75">
-        <v>0</v>
-      </c>
       <c r="W20" s="75">
+        <v>0</v>
+      </c>
+      <c r="X20" s="75">
         <v>112</v>
       </c>
-      <c r="X20" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="66">
+      <c r="Y20" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="12"/>
-    </row>
-    <row r="21" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="12"/>
+    </row>
+    <row r="21" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>28</v>
       </c>
@@ -3498,7 +3564,7 @@
       <c r="J21" s="55">
         <v>0</v>
       </c>
-      <c r="K21" s="75">
+      <c r="K21" s="55">
         <v>0</v>
       </c>
       <c r="L21" s="75">
@@ -3511,13 +3577,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="75">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P21" s="75">
         <v>12</v>
       </c>
       <c r="Q21" s="75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R21" s="75">
         <v>0</v>
@@ -3526,30 +3592,33 @@
         <v>0</v>
       </c>
       <c r="T21" s="75">
+        <v>0</v>
+      </c>
+      <c r="U21" s="75">
         <v>12</v>
       </c>
-      <c r="U21" s="75">
-        <v>0</v>
-      </c>
       <c r="V21" s="75">
         <v>0</v>
       </c>
       <c r="W21" s="75">
+        <v>0</v>
+      </c>
+      <c r="X21" s="75">
         <v>96</v>
       </c>
-      <c r="X21" s="76">
+      <c r="Y21" s="76">
         <v>12</v>
       </c>
-      <c r="Y21" s="66">
+      <c r="Z21" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="13"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="12"/>
       <c r="AD21" s="13"/>
-    </row>
-    <row r="22" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE21" s="13"/>
+    </row>
+    <row r="22" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>19</v>
       </c>
@@ -3576,24 +3645,24 @@
       <c r="J22" s="55">
         <v>0</v>
       </c>
-      <c r="K22" s="75">
+      <c r="K22" s="55">
+        <v>0</v>
+      </c>
+      <c r="L22" s="75">
         <v>448</v>
       </c>
-      <c r="L22" s="75">
+      <c r="M22" s="75">
         <v>308</v>
       </c>
-      <c r="M22" s="75">
+      <c r="N22" s="75">
         <v>588</v>
       </c>
-      <c r="N22" s="75">
+      <c r="O22" s="75">
         <v>1120</v>
       </c>
-      <c r="O22" s="75">
+      <c r="P22" s="75">
         <v>672</v>
       </c>
-      <c r="P22" s="75">
-        <v>0</v>
-      </c>
       <c r="Q22" s="75">
         <v>0</v>
       </c>
@@ -3615,19 +3684,22 @@
       <c r="W22" s="75">
         <v>0</v>
       </c>
-      <c r="X22" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="66">
+      <c r="X22" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="13"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="12"/>
       <c r="AD22" s="13"/>
-    </row>
-    <row r="23" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE22" s="13"/>
+    </row>
+    <row r="23" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>20</v>
       </c>
@@ -3656,7 +3728,7 @@
       <c r="J23" s="55">
         <v>0</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="55">
         <v>0</v>
       </c>
       <c r="L23" s="75">
@@ -3678,33 +3750,36 @@
         <v>0</v>
       </c>
       <c r="R23" s="75">
+        <v>0</v>
+      </c>
+      <c r="S23" s="75">
         <v>168</v>
-      </c>
-      <c r="S23" s="75">
-        <v>392</v>
       </c>
       <c r="T23" s="75">
         <v>392</v>
       </c>
       <c r="U23" s="75">
-        <v>168</v>
+        <v>392</v>
       </c>
       <c r="V23" s="75">
         <v>168</v>
       </c>
       <c r="W23" s="75">
+        <v>168</v>
+      </c>
+      <c r="X23" s="75">
         <v>336</v>
       </c>
-      <c r="X23" s="76">
+      <c r="Y23" s="76">
         <v>392</v>
       </c>
-      <c r="Y23" s="66">
+      <c r="Z23" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="12"/>
+    </row>
+    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>30</v>
       </c>
@@ -3733,11 +3808,11 @@
       <c r="J24" s="55">
         <v>0</v>
       </c>
-      <c r="K24" s="75">
+      <c r="K24" s="55">
         <v>0</v>
       </c>
       <c r="L24" s="75">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M24" s="75">
         <v>180</v>
@@ -3749,7 +3824,7 @@
         <v>180</v>
       </c>
       <c r="P24" s="75">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="Q24" s="75">
         <v>0</v>
@@ -3772,16 +3847,19 @@
       <c r="W24" s="75">
         <v>0</v>
       </c>
-      <c r="X24" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="66">
+      <c r="X24" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="12"/>
-    </row>
-    <row r="25" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="12"/>
+    </row>
+    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>32</v>
       </c>
@@ -3810,11 +3888,11 @@
       <c r="J25" s="55">
         <v>0</v>
       </c>
-      <c r="K25" s="75">
+      <c r="K25" s="55">
         <v>0</v>
       </c>
       <c r="L25" s="75">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="M25" s="75">
         <v>196</v>
@@ -3826,7 +3904,7 @@
         <v>196</v>
       </c>
       <c r="P25" s="75">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="75">
         <v>0</v>
@@ -3849,16 +3927,19 @@
       <c r="W25" s="75">
         <v>0</v>
       </c>
-      <c r="X25" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="66">
+      <c r="X25" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="12"/>
-    </row>
-    <row r="26" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="12"/>
+    </row>
+    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>39</v>
       </c>
@@ -3887,12 +3968,12 @@
       <c r="J26" s="55">
         <v>0</v>
       </c>
-      <c r="K26" s="75">
+      <c r="K26" s="55">
+        <v>0</v>
+      </c>
+      <c r="L26" s="75">
         <v>48</v>
       </c>
-      <c r="L26" s="75">
-        <v>0</v>
-      </c>
       <c r="M26" s="75">
         <v>0</v>
       </c>
@@ -3909,11 +3990,11 @@
         <v>0</v>
       </c>
       <c r="R26" s="75">
+        <v>0</v>
+      </c>
+      <c r="S26" s="75">
         <v>120</v>
       </c>
-      <c r="S26" s="75">
-        <v>0</v>
-      </c>
       <c r="T26" s="75">
         <v>0</v>
       </c>
@@ -3926,16 +4007,19 @@
       <c r="W26" s="75">
         <v>0</v>
       </c>
-      <c r="X26" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="66">
+      <c r="X26" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="12"/>
-    </row>
-    <row r="27" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="12"/>
+    </row>
+    <row r="27" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>41</v>
       </c>
@@ -3964,35 +4048,35 @@
       <c r="J27" s="55">
         <v>0</v>
       </c>
-      <c r="K27" s="75">
-        <v>1200</v>
+      <c r="K27" s="55">
+        <v>0</v>
       </c>
       <c r="L27" s="75">
         <v>1200</v>
       </c>
       <c r="M27" s="75">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N27" s="75">
         <v>0</v>
       </c>
       <c r="O27" s="75">
+        <v>0</v>
+      </c>
+      <c r="P27" s="75">
         <v>600</v>
       </c>
-      <c r="P27" s="75">
+      <c r="Q27" s="75">
         <v>684</v>
       </c>
-      <c r="Q27" s="75">
-        <v>0</v>
-      </c>
       <c r="R27" s="75">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="S27" s="75">
         <v>156</v>
       </c>
       <c r="T27" s="75">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="U27" s="75">
         <v>0</v>
@@ -4001,21 +4085,24 @@
         <v>0</v>
       </c>
       <c r="W27" s="75">
+        <v>0</v>
+      </c>
+      <c r="X27" s="75">
         <v>876</v>
       </c>
-      <c r="X27" s="76">
+      <c r="Y27" s="76">
         <v>84</v>
       </c>
-      <c r="Y27" s="66">
+      <c r="Z27" s="66">
         <v>1.2</v>
       </c>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="13"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="12"/>
       <c r="AD27" s="13"/>
-    </row>
-    <row r="28" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE27" s="13"/>
+    </row>
+    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>34</v>
       </c>
@@ -4046,22 +4133,22 @@
       <c r="J28" s="55">
         <v>0</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="55">
         <v>0</v>
       </c>
       <c r="L28" s="75">
         <v>0</v>
       </c>
       <c r="M28" s="75">
-        <f>48*21</f>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="N28" s="75">
         <f>48*21</f>
         <v>1008</v>
       </c>
       <c r="O28" s="75">
-        <v>0</v>
+        <f>48*21</f>
+        <v>1008</v>
       </c>
       <c r="P28" s="75">
         <v>0</v>
@@ -4070,33 +4157,36 @@
         <v>0</v>
       </c>
       <c r="R28" s="75">
+        <v>0</v>
+      </c>
+      <c r="S28" s="75">
         <v>126</v>
-      </c>
-      <c r="S28" s="75">
-        <v>273</v>
       </c>
       <c r="T28" s="75">
         <v>273</v>
       </c>
       <c r="U28" s="75">
+        <v>273</v>
+      </c>
+      <c r="V28" s="75">
         <v>336</v>
       </c>
-      <c r="V28" s="75">
-        <v>0</v>
-      </c>
       <c r="W28" s="75">
+        <v>0</v>
+      </c>
+      <c r="X28" s="75">
         <v>273</v>
       </c>
-      <c r="X28" s="76">
+      <c r="Y28" s="76">
         <v>273</v>
       </c>
-      <c r="Y28" s="66">
+      <c r="Z28" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="12"/>
-    </row>
-    <row r="29" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="12"/>
+    </row>
+    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>42</v>
       </c>
@@ -4125,33 +4215,33 @@
       <c r="J29" s="55">
         <v>0</v>
       </c>
-      <c r="K29" s="75">
+      <c r="K29" s="55">
+        <v>0</v>
+      </c>
+      <c r="L29" s="75">
         <v>64</v>
       </c>
-      <c r="L29" s="75">
+      <c r="M29" s="75">
         <v>160</v>
       </c>
-      <c r="M29" s="75">
+      <c r="N29" s="75">
         <v>480</v>
       </c>
-      <c r="N29" s="75">
-        <v>0</v>
-      </c>
       <c r="O29" s="75">
         <v>0</v>
       </c>
       <c r="P29" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="75">
         <v>64</v>
       </c>
-      <c r="Q29" s="75">
-        <v>0</v>
-      </c>
       <c r="R29" s="75">
+        <v>0</v>
+      </c>
+      <c r="S29" s="75">
         <v>80</v>
       </c>
-      <c r="S29" s="75">
-        <v>0</v>
-      </c>
       <c r="T29" s="75">
         <v>0</v>
       </c>
@@ -4159,21 +4249,24 @@
         <v>0</v>
       </c>
       <c r="V29" s="75">
+        <v>0</v>
+      </c>
+      <c r="W29" s="75">
         <v>80</v>
       </c>
-      <c r="W29" s="75">
-        <v>0</v>
-      </c>
-      <c r="X29" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="66">
+      <c r="X29" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="12"/>
-    </row>
-    <row r="30" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="12"/>
+    </row>
+    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>254</v>
       </c>
@@ -4200,55 +4293,58 @@
       <c r="J30" s="55">
         <v>0</v>
       </c>
-      <c r="K30" s="75">
+      <c r="K30" s="55">
+        <v>0</v>
+      </c>
+      <c r="L30" s="75">
         <v>2304</v>
       </c>
-      <c r="L30" s="75">
+      <c r="M30" s="75">
         <v>2352</v>
       </c>
-      <c r="M30" s="75">
+      <c r="N30" s="75">
         <v>2304</v>
       </c>
-      <c r="N30" s="75">
+      <c r="O30" s="75">
         <v>1960</v>
       </c>
-      <c r="O30" s="75">
+      <c r="P30" s="75">
         <v>544</v>
       </c>
-      <c r="P30" s="75">
+      <c r="Q30" s="75">
         <v>1144</v>
       </c>
-      <c r="Q30" s="75">
-        <v>0</v>
-      </c>
       <c r="R30" s="75">
+        <v>0</v>
+      </c>
+      <c r="S30" s="75">
         <v>1184</v>
       </c>
-      <c r="S30" s="75">
+      <c r="T30" s="75">
         <v>1048</v>
       </c>
-      <c r="T30" s="75">
+      <c r="U30" s="75">
         <v>1168</v>
       </c>
-      <c r="U30" s="75">
+      <c r="V30" s="75">
         <v>976</v>
       </c>
-      <c r="V30" s="75">
+      <c r="W30" s="75">
         <v>1624</v>
       </c>
-      <c r="W30" s="75">
+      <c r="X30" s="75">
         <v>1384</v>
       </c>
-      <c r="X30" s="76">
+      <c r="Y30" s="76">
         <v>1528</v>
       </c>
-      <c r="Y30" s="66">
+      <c r="Z30" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="12"/>
-    </row>
-    <row r="31" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="12"/>
+    </row>
+    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>255</v>
       </c>
@@ -4277,55 +4373,58 @@
       <c r="J31" s="55">
         <v>0</v>
       </c>
-      <c r="K31" s="75">
+      <c r="K31" s="55">
+        <v>0</v>
+      </c>
+      <c r="L31" s="75">
         <v>2304</v>
       </c>
-      <c r="L31" s="75">
+      <c r="M31" s="75">
         <v>2352</v>
       </c>
-      <c r="M31" s="75">
+      <c r="N31" s="75">
         <v>2304</v>
       </c>
-      <c r="N31" s="75">
+      <c r="O31" s="75">
         <v>1956</v>
       </c>
-      <c r="O31" s="75">
+      <c r="P31" s="75">
         <v>540</v>
       </c>
-      <c r="P31" s="75">
+      <c r="Q31" s="75">
         <v>1140</v>
       </c>
-      <c r="Q31" s="75">
-        <v>0</v>
-      </c>
       <c r="R31" s="75">
+        <v>0</v>
+      </c>
+      <c r="S31" s="75">
         <v>1188</v>
       </c>
-      <c r="S31" s="75">
+      <c r="T31" s="75">
         <v>1056</v>
       </c>
-      <c r="T31" s="75">
+      <c r="U31" s="75">
         <v>1176</v>
       </c>
-      <c r="U31" s="75">
+      <c r="V31" s="75">
         <v>984</v>
       </c>
-      <c r="V31" s="75">
+      <c r="W31" s="75">
         <v>1632</v>
       </c>
-      <c r="W31" s="75">
+      <c r="X31" s="75">
         <v>1392</v>
       </c>
-      <c r="X31" s="76">
+      <c r="Y31" s="76">
         <v>1536</v>
       </c>
-      <c r="Y31" s="66">
+      <c r="Z31" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="12"/>
-    </row>
-    <row r="32" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="12"/>
+    </row>
+    <row r="32" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>244</v>
       </c>
@@ -4350,55 +4449,58 @@
       <c r="J32" s="55">
         <v>0</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="55">
+        <v>0</v>
+      </c>
+      <c r="L32" s="75">
         <v>992</v>
-      </c>
-      <c r="L32" s="75">
-        <v>784</v>
       </c>
       <c r="M32" s="75">
         <v>784</v>
       </c>
       <c r="N32" s="75">
+        <v>784</v>
+      </c>
+      <c r="O32" s="75">
         <v>992</v>
       </c>
-      <c r="O32" s="75">
+      <c r="P32" s="75">
         <v>1872</v>
       </c>
-      <c r="P32" s="75">
+      <c r="Q32" s="75">
         <v>1760</v>
       </c>
-      <c r="Q32" s="75">
-        <v>0</v>
-      </c>
       <c r="R32" s="75">
+        <v>0</v>
+      </c>
+      <c r="S32" s="75">
         <v>992</v>
       </c>
-      <c r="S32" s="75">
+      <c r="T32" s="75">
         <v>2320</v>
       </c>
-      <c r="T32" s="75">
-        <v>0</v>
-      </c>
       <c r="U32" s="75">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="V32" s="75">
         <v>1104</v>
       </c>
       <c r="W32" s="75">
+        <v>1104</v>
+      </c>
+      <c r="X32" s="75">
         <v>1872</v>
       </c>
-      <c r="X32" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="66">
+      <c r="Y32" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="12"/>
-    </row>
-    <row r="33" spans="1:30" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="12"/>
+    </row>
+    <row r="33" spans="1:31" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
         <v>258</v>
       </c>
@@ -4421,58 +4523,61 @@
       <c r="J33" s="55">
         <v>0</v>
       </c>
-      <c r="K33" s="75">
+      <c r="K33" s="55">
+        <v>0</v>
+      </c>
+      <c r="L33" s="75">
         <v>1000</v>
-      </c>
-      <c r="L33" s="75">
-        <v>780</v>
       </c>
       <c r="M33" s="75">
         <v>780</v>
       </c>
       <c r="N33" s="75">
+        <v>780</v>
+      </c>
+      <c r="O33" s="75">
         <v>1000</v>
       </c>
-      <c r="O33" s="75">
+      <c r="P33" s="75">
         <v>1880</v>
       </c>
-      <c r="P33" s="75">
+      <c r="Q33" s="75">
         <v>1760</v>
       </c>
-      <c r="Q33" s="75">
-        <v>0</v>
-      </c>
       <c r="R33" s="75">
+        <v>0</v>
+      </c>
+      <c r="S33" s="75">
         <v>1000</v>
       </c>
-      <c r="S33" s="75">
+      <c r="T33" s="75">
         <v>2320</v>
       </c>
-      <c r="T33" s="75">
-        <v>0</v>
-      </c>
       <c r="U33" s="75">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="75">
         <v>1100</v>
       </c>
       <c r="W33" s="75">
+        <v>1100</v>
+      </c>
+      <c r="X33" s="75">
         <v>1880</v>
       </c>
-      <c r="X33" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="66">
+      <c r="Y33" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z33" s="74" t="s">
+      <c r="AA33" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
-    </row>
-    <row r="34" spans="1:30" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC33" s="8"/>
+    </row>
+    <row r="34" spans="1:31" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="59" t="s">
         <v>256</v>
       </c>
@@ -4495,58 +4600,61 @@
       <c r="J34" s="55">
         <v>0</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="55">
+        <v>0</v>
+      </c>
+      <c r="L34" s="75">
         <v>1008</v>
-      </c>
-      <c r="L34" s="75">
-        <v>792</v>
       </c>
       <c r="M34" s="75">
         <v>792</v>
       </c>
       <c r="N34" s="75">
+        <v>792</v>
+      </c>
+      <c r="O34" s="75">
         <v>1008</v>
       </c>
-      <c r="O34" s="75">
+      <c r="P34" s="75">
         <v>1872</v>
       </c>
-      <c r="P34" s="75">
+      <c r="Q34" s="75">
         <v>1776</v>
       </c>
-      <c r="Q34" s="75">
-        <v>0</v>
-      </c>
       <c r="R34" s="75">
+        <v>0</v>
+      </c>
+      <c r="S34" s="75">
         <v>1008</v>
       </c>
-      <c r="S34" s="75">
+      <c r="T34" s="75">
         <v>2328</v>
       </c>
-      <c r="T34" s="75">
-        <v>0</v>
-      </c>
       <c r="U34" s="75">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="V34" s="75">
         <v>1104</v>
       </c>
       <c r="W34" s="75">
+        <v>1104</v>
+      </c>
+      <c r="X34" s="75">
         <v>1872</v>
       </c>
-      <c r="X34" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="66">
+      <c r="Y34" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z34" s="74" t="s">
+      <c r="AA34" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
-    </row>
-    <row r="35" spans="1:30" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC34" s="8"/>
+    </row>
+    <row r="35" spans="1:31" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="59" t="s">
         <v>257</v>
       </c>
@@ -4569,58 +4677,61 @@
       <c r="J35" s="55">
         <v>0</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="55">
+        <v>0</v>
+      </c>
+      <c r="L35" s="75">
         <v>1008</v>
-      </c>
-      <c r="L35" s="75">
-        <v>792</v>
       </c>
       <c r="M35" s="75">
         <v>792</v>
       </c>
       <c r="N35" s="75">
+        <v>792</v>
+      </c>
+      <c r="O35" s="75">
         <v>1008</v>
       </c>
-      <c r="O35" s="75">
+      <c r="P35" s="75">
         <v>1872</v>
       </c>
-      <c r="P35" s="75">
+      <c r="Q35" s="75">
         <v>1776</v>
       </c>
-      <c r="Q35" s="75">
-        <v>0</v>
-      </c>
       <c r="R35" s="75">
+        <v>0</v>
+      </c>
+      <c r="S35" s="75">
         <v>1008</v>
       </c>
-      <c r="S35" s="75">
+      <c r="T35" s="75">
         <v>2328</v>
       </c>
-      <c r="T35" s="75">
-        <v>0</v>
-      </c>
       <c r="U35" s="75">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="V35" s="75">
         <v>1104</v>
       </c>
       <c r="W35" s="75">
+        <v>1104</v>
+      </c>
+      <c r="X35" s="75">
         <v>1872</v>
       </c>
-      <c r="X35" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="66">
+      <c r="Y35" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z35" s="74" t="s">
+      <c r="AA35" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
-    </row>
-    <row r="36" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC35" s="8"/>
+    </row>
+    <row r="36" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>61</v>
       </c>
@@ -4649,7 +4760,7 @@
       <c r="J36" s="55">
         <v>0</v>
       </c>
-      <c r="K36" s="75">
+      <c r="K36" s="55">
         <v>0</v>
       </c>
       <c r="L36" s="75">
@@ -4688,16 +4799,19 @@
       <c r="W36" s="75">
         <v>0</v>
       </c>
-      <c r="X36" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="66">
+      <c r="X36" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="12"/>
-    </row>
-    <row r="37" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="12"/>
+    </row>
+    <row r="37" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>46</v>
       </c>
@@ -4726,7 +4840,7 @@
       <c r="J37" s="55">
         <v>0</v>
       </c>
-      <c r="K37" s="75">
+      <c r="K37" s="55">
         <v>0</v>
       </c>
       <c r="L37" s="75">
@@ -4736,45 +4850,48 @@
         <v>0</v>
       </c>
       <c r="N37" s="75">
+        <v>0</v>
+      </c>
+      <c r="O37" s="75">
         <v>160</v>
       </c>
-      <c r="O37" s="75">
+      <c r="P37" s="75">
         <v>80</v>
       </c>
-      <c r="P37" s="75">
-        <v>0</v>
-      </c>
       <c r="Q37" s="75">
         <v>0</v>
       </c>
       <c r="R37" s="75">
+        <v>0</v>
+      </c>
+      <c r="S37" s="75">
         <v>80</v>
       </c>
-      <c r="S37" s="75">
-        <v>0</v>
-      </c>
       <c r="T37" s="75">
         <v>0</v>
       </c>
       <c r="U37" s="75">
+        <v>0</v>
+      </c>
+      <c r="V37" s="75">
         <v>320</v>
       </c>
-      <c r="V37" s="75">
-        <v>0</v>
-      </c>
       <c r="W37" s="75">
         <v>0</v>
       </c>
-      <c r="X37" s="76">
+      <c r="X37" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="76">
         <v>160</v>
       </c>
-      <c r="Y37" s="66">
+      <c r="Z37" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="12"/>
-    </row>
-    <row r="38" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="12"/>
+    </row>
+    <row r="38" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>48</v>
       </c>
@@ -4803,7 +4920,7 @@
       <c r="J38" s="55">
         <v>0</v>
       </c>
-      <c r="K38" s="75">
+      <c r="K38" s="55">
         <v>0</v>
       </c>
       <c r="L38" s="75">
@@ -4813,45 +4930,48 @@
         <v>0</v>
       </c>
       <c r="N38" s="75">
+        <v>0</v>
+      </c>
+      <c r="O38" s="75">
         <v>180</v>
       </c>
-      <c r="O38" s="75">
+      <c r="P38" s="75">
         <v>90</v>
       </c>
-      <c r="P38" s="75">
-        <v>0</v>
-      </c>
       <c r="Q38" s="75">
         <v>0</v>
       </c>
       <c r="R38" s="75">
+        <v>0</v>
+      </c>
+      <c r="S38" s="75">
         <v>90</v>
       </c>
-      <c r="S38" s="75">
-        <v>0</v>
-      </c>
       <c r="T38" s="75">
         <v>0</v>
       </c>
       <c r="U38" s="75">
+        <v>0</v>
+      </c>
+      <c r="V38" s="75">
         <v>330</v>
       </c>
-      <c r="V38" s="75">
-        <v>0</v>
-      </c>
       <c r="W38" s="75">
         <v>0</v>
       </c>
-      <c r="X38" s="76">
+      <c r="X38" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="76">
         <v>180</v>
       </c>
-      <c r="Y38" s="66">
+      <c r="Z38" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="12"/>
-    </row>
-    <row r="39" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="12"/>
+    </row>
+    <row r="39" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>50</v>
       </c>
@@ -4880,11 +5000,11 @@
       <c r="J39" s="55">
         <v>0</v>
       </c>
-      <c r="K39" s="75">
+      <c r="K39" s="55">
         <v>0</v>
       </c>
       <c r="L39" s="75">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="M39" s="75">
         <v>210</v>
@@ -4896,7 +5016,7 @@
         <v>210</v>
       </c>
       <c r="P39" s="75">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="Q39" s="75">
         <v>0</v>
@@ -4919,16 +5039,19 @@
       <c r="W39" s="75">
         <v>0</v>
       </c>
-      <c r="X39" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="66">
+      <c r="X39" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="12"/>
-    </row>
-    <row r="40" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="12"/>
+    </row>
+    <row r="40" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>52</v>
       </c>
@@ -4959,7 +5082,7 @@
       <c r="J40" s="55">
         <v>0</v>
       </c>
-      <c r="K40" s="75">
+      <c r="K40" s="55">
         <v>0</v>
       </c>
       <c r="L40" s="75">
@@ -4998,19 +5121,22 @@
       <c r="W40" s="75">
         <v>0</v>
       </c>
-      <c r="X40" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="66">
+      <c r="X40" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="66">
         <v>1.3</v>
       </c>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="13"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
-    </row>
-    <row r="41" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE40" s="13"/>
+    </row>
+    <row r="41" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>53</v>
       </c>
@@ -5039,11 +5165,11 @@
       <c r="J41" s="55">
         <v>0</v>
       </c>
-      <c r="K41" s="75">
+      <c r="K41" s="55">
         <v>0</v>
       </c>
       <c r="L41" s="75">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="M41" s="75">
         <v>216</v>
@@ -5055,7 +5181,7 @@
         <v>216</v>
       </c>
       <c r="P41" s="75">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Q41" s="75">
         <v>0</v>
@@ -5078,19 +5204,22 @@
       <c r="W41" s="75">
         <v>0</v>
       </c>
-      <c r="X41" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="66">
+      <c r="X41" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="66">
         <v>1.3</v>
       </c>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="13"/>
+      <c r="AA41" s="57"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="12"/>
       <c r="AD41" s="13"/>
-    </row>
-    <row r="42" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE41" s="13"/>
+    </row>
+    <row r="42" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
         <v>74</v>
       </c>
@@ -5119,7 +5248,7 @@
       <c r="J42" s="55">
         <v>0</v>
       </c>
-      <c r="K42" s="75">
+      <c r="K42" s="55">
         <v>0</v>
       </c>
       <c r="L42" s="75">
@@ -5158,16 +5287,19 @@
       <c r="W42" s="75">
         <v>0</v>
       </c>
-      <c r="X42" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="66">
+      <c r="X42" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="12"/>
-    </row>
-    <row r="43" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="12"/>
+    </row>
+    <row r="43" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
         <v>73</v>
       </c>
@@ -5196,7 +5328,7 @@
       <c r="J43" s="55">
         <v>0</v>
       </c>
-      <c r="K43" s="75">
+      <c r="K43" s="55">
         <v>0</v>
       </c>
       <c r="L43" s="75">
@@ -5235,16 +5367,19 @@
       <c r="W43" s="75">
         <v>0</v>
       </c>
-      <c r="X43" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="66">
+      <c r="X43" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="12"/>
-    </row>
-    <row r="44" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="12"/>
+    </row>
+    <row r="44" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>58</v>
       </c>
@@ -5273,55 +5408,58 @@
       <c r="J44" s="55">
         <v>0</v>
       </c>
-      <c r="K44" s="75">
+      <c r="K44" s="55">
         <v>0</v>
       </c>
       <c r="L44" s="75">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="M44" s="75">
         <v>256</v>
       </c>
       <c r="N44" s="75">
+        <v>256</v>
+      </c>
+      <c r="O44" s="75">
         <v>80</v>
       </c>
-      <c r="O44" s="75">
+      <c r="P44" s="75">
         <v>272</v>
       </c>
-      <c r="P44" s="75">
+      <c r="Q44" s="75">
         <v>176</v>
       </c>
-      <c r="Q44" s="75">
-        <v>0</v>
-      </c>
       <c r="R44" s="75">
+        <v>0</v>
+      </c>
+      <c r="S44" s="75">
         <v>160</v>
       </c>
-      <c r="S44" s="75">
-        <v>0</v>
-      </c>
       <c r="T44" s="75">
+        <v>0</v>
+      </c>
+      <c r="U44" s="75">
         <v>64</v>
       </c>
-      <c r="U44" s="75">
+      <c r="V44" s="75">
         <v>32</v>
       </c>
-      <c r="V44" s="75">
+      <c r="W44" s="75">
         <v>112</v>
       </c>
-      <c r="W44" s="75">
+      <c r="X44" s="75">
         <v>128</v>
       </c>
-      <c r="X44" s="76">
+      <c r="Y44" s="76">
         <v>128</v>
       </c>
-      <c r="Y44" s="66">
+      <c r="Z44" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="12"/>
-    </row>
-    <row r="45" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="12"/>
+    </row>
+    <row r="45" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>59</v>
       </c>
@@ -5350,55 +5488,58 @@
       <c r="J45" s="55">
         <v>0</v>
       </c>
-      <c r="K45" s="75">
+      <c r="K45" s="55">
         <v>0</v>
       </c>
       <c r="L45" s="75">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="M45" s="75">
         <v>256</v>
       </c>
       <c r="N45" s="75">
+        <v>256</v>
+      </c>
+      <c r="O45" s="75">
         <v>80</v>
       </c>
-      <c r="O45" s="75">
+      <c r="P45" s="75">
         <v>272</v>
       </c>
-      <c r="P45" s="75">
+      <c r="Q45" s="75">
         <v>176</v>
       </c>
-      <c r="Q45" s="75">
-        <v>0</v>
-      </c>
       <c r="R45" s="75">
+        <v>0</v>
+      </c>
+      <c r="S45" s="75">
         <v>160</v>
       </c>
-      <c r="S45" s="75">
-        <v>0</v>
-      </c>
       <c r="T45" s="75">
+        <v>0</v>
+      </c>
+      <c r="U45" s="75">
         <v>64</v>
       </c>
-      <c r="U45" s="75">
+      <c r="V45" s="75">
         <v>32</v>
       </c>
-      <c r="V45" s="75">
+      <c r="W45" s="75">
         <v>112</v>
       </c>
-      <c r="W45" s="75">
+      <c r="X45" s="75">
         <v>128</v>
       </c>
-      <c r="X45" s="76">
+      <c r="Y45" s="76">
         <v>128</v>
       </c>
-      <c r="Y45" s="66">
+      <c r="Z45" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="12"/>
-    </row>
-    <row r="46" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="12"/>
+    </row>
+    <row r="46" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46" t="s">
         <v>64</v>
       </c>
@@ -5427,55 +5568,58 @@
       <c r="J46" s="55">
         <v>0</v>
       </c>
-      <c r="K46" s="75">
+      <c r="K46" s="55">
+        <v>0</v>
+      </c>
+      <c r="L46" s="75">
         <v>160</v>
       </c>
-      <c r="L46" s="75">
+      <c r="M46" s="75">
         <v>80</v>
       </c>
-      <c r="M46" s="75">
-        <v>0</v>
-      </c>
       <c r="N46" s="75">
+        <v>0</v>
+      </c>
+      <c r="O46" s="75">
         <v>80</v>
       </c>
-      <c r="O46" s="75">
-        <v>0</v>
-      </c>
       <c r="P46" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="75">
         <v>16</v>
       </c>
-      <c r="Q46" s="75">
-        <v>0</v>
-      </c>
       <c r="R46" s="75">
+        <v>0</v>
+      </c>
+      <c r="S46" s="75">
         <v>272</v>
       </c>
-      <c r="S46" s="75">
+      <c r="T46" s="75">
         <v>64</v>
       </c>
-      <c r="T46" s="75">
-        <v>0</v>
-      </c>
       <c r="U46" s="75">
         <v>0</v>
       </c>
       <c r="V46" s="75">
+        <v>0</v>
+      </c>
+      <c r="W46" s="75">
         <v>16</v>
       </c>
-      <c r="W46" s="75">
-        <v>0</v>
-      </c>
-      <c r="X46" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="66">
+      <c r="X46" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="12"/>
-    </row>
-    <row r="47" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="12"/>
+    </row>
+    <row r="47" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
         <v>66</v>
       </c>
@@ -5504,55 +5648,58 @@
       <c r="J47" s="55">
         <v>0</v>
       </c>
-      <c r="K47" s="75">
+      <c r="K47" s="55">
+        <v>0</v>
+      </c>
+      <c r="L47" s="75">
         <v>160</v>
       </c>
-      <c r="L47" s="75">
+      <c r="M47" s="75">
         <v>80</v>
       </c>
-      <c r="M47" s="75">
-        <v>0</v>
-      </c>
       <c r="N47" s="75">
+        <v>0</v>
+      </c>
+      <c r="O47" s="75">
         <v>80</v>
       </c>
-      <c r="O47" s="75">
-        <v>0</v>
-      </c>
       <c r="P47" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="75">
         <v>16</v>
       </c>
-      <c r="Q47" s="75">
-        <v>0</v>
-      </c>
       <c r="R47" s="75">
+        <v>0</v>
+      </c>
+      <c r="S47" s="75">
         <v>272</v>
       </c>
-      <c r="S47" s="75">
+      <c r="T47" s="75">
         <v>64</v>
       </c>
-      <c r="T47" s="75">
-        <v>0</v>
-      </c>
       <c r="U47" s="75">
         <v>0</v>
       </c>
       <c r="V47" s="75">
+        <v>0</v>
+      </c>
+      <c r="W47" s="75">
         <v>16</v>
       </c>
-      <c r="W47" s="75">
-        <v>0</v>
-      </c>
-      <c r="X47" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="66">
+      <c r="X47" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="12"/>
-    </row>
-    <row r="48" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="12"/>
+    </row>
+    <row r="48" spans="1:31" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>70</v>
       </c>
@@ -5583,59 +5730,62 @@
       <c r="J48" s="55">
         <v>0</v>
       </c>
-      <c r="K48" s="75">
+      <c r="K48" s="55">
+        <v>0</v>
+      </c>
+      <c r="L48" s="75">
         <f>160*3</f>
         <v>480</v>
       </c>
-      <c r="L48" s="75">
+      <c r="M48" s="75">
         <v>608</v>
       </c>
-      <c r="M48" s="75">
+      <c r="N48" s="75">
         <v>512</v>
       </c>
-      <c r="N48" s="75">
+      <c r="O48" s="75">
         <v>352</v>
       </c>
-      <c r="O48" s="75">
+      <c r="P48" s="75">
         <v>464</v>
       </c>
-      <c r="P48" s="75">
+      <c r="Q48" s="75">
         <v>336</v>
       </c>
-      <c r="Q48" s="75">
-        <v>0</v>
-      </c>
       <c r="R48" s="75">
+        <v>0</v>
+      </c>
+      <c r="S48" s="75">
         <v>304</v>
-      </c>
-      <c r="S48" s="75">
-        <v>416</v>
       </c>
       <c r="T48" s="75">
         <v>416</v>
       </c>
       <c r="U48" s="75">
+        <v>416</v>
+      </c>
+      <c r="V48" s="75">
         <v>256</v>
-      </c>
-      <c r="V48" s="75">
-        <v>272</v>
       </c>
       <c r="W48" s="75">
         <v>272</v>
       </c>
-      <c r="X48" s="76">
+      <c r="X48" s="75">
         <v>272</v>
       </c>
-      <c r="Y48" s="66">
+      <c r="Y48" s="76">
+        <v>272</v>
+      </c>
+      <c r="Z48" s="66">
         <v>1.3</v>
       </c>
-      <c r="Z48" s="57"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="13"/>
+      <c r="AA48" s="57"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="12"/>
       <c r="AD48" s="13"/>
-    </row>
-    <row r="49" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE48" s="13"/>
+    </row>
+    <row r="49" spans="1:31" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>72</v>
       </c>
@@ -5664,12 +5814,12 @@
       <c r="J49" s="55">
         <v>0</v>
       </c>
-      <c r="K49" s="75">
+      <c r="K49" s="55">
+        <v>0</v>
+      </c>
+      <c r="L49" s="75">
         <v>160</v>
       </c>
-      <c r="L49" s="75">
-        <v>0</v>
-      </c>
       <c r="M49" s="75">
         <v>0</v>
       </c>
@@ -5701,21 +5851,24 @@
         <v>0</v>
       </c>
       <c r="W49" s="75">
+        <v>0</v>
+      </c>
+      <c r="X49" s="75">
         <v>112</v>
       </c>
-      <c r="X49" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="66">
+      <c r="Y49" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="66">
         <v>1.3</v>
       </c>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="13"/>
+      <c r="AA49" s="57"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="12"/>
       <c r="AD49" s="13"/>
-    </row>
-    <row r="50" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE49" s="13"/>
+    </row>
+    <row r="50" spans="1:31" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="46" t="s">
         <v>71</v>
       </c>
@@ -5746,58 +5899,61 @@
       <c r="J50" s="55">
         <v>0</v>
       </c>
-      <c r="K50" s="75">
+      <c r="K50" s="55">
+        <v>0</v>
+      </c>
+      <c r="L50" s="75">
         <v>640</v>
       </c>
-      <c r="L50" s="75">
+      <c r="M50" s="75">
         <v>608</v>
       </c>
-      <c r="M50" s="75">
+      <c r="N50" s="75">
         <v>512</v>
       </c>
-      <c r="N50" s="75">
+      <c r="O50" s="75">
         <v>352</v>
       </c>
-      <c r="O50" s="75">
+      <c r="P50" s="75">
         <v>464</v>
       </c>
-      <c r="P50" s="75">
+      <c r="Q50" s="75">
         <v>336</v>
       </c>
-      <c r="Q50" s="75">
-        <v>0</v>
-      </c>
       <c r="R50" s="75">
+        <v>0</v>
+      </c>
+      <c r="S50" s="75">
         <v>304</v>
-      </c>
-      <c r="S50" s="75">
-        <v>416</v>
       </c>
       <c r="T50" s="75">
         <v>416</v>
       </c>
       <c r="U50" s="75">
+        <v>416</v>
+      </c>
+      <c r="V50" s="75">
         <v>256</v>
       </c>
-      <c r="V50" s="75">
+      <c r="W50" s="75">
         <v>272</v>
       </c>
-      <c r="W50" s="75">
+      <c r="X50" s="75">
         <v>368</v>
       </c>
-      <c r="X50" s="76">
+      <c r="Y50" s="76">
         <v>272</v>
       </c>
-      <c r="Y50" s="66">
+      <c r="Z50" s="66">
         <v>1.3</v>
       </c>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="13"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="12"/>
       <c r="AD50" s="13"/>
-    </row>
-    <row r="51" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE50" s="13"/>
+    </row>
+    <row r="51" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
         <v>69</v>
       </c>
@@ -5826,7 +5982,7 @@
       <c r="J51" s="55">
         <v>0</v>
       </c>
-      <c r="K51" s="75">
+      <c r="K51" s="55">
         <v>0</v>
       </c>
       <c r="L51" s="75">
@@ -5865,16 +6021,19 @@
       <c r="W51" s="75">
         <v>0</v>
       </c>
-      <c r="X51" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="66">
+      <c r="X51" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="12"/>
-    </row>
-    <row r="52" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="12"/>
+    </row>
+    <row r="52" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
         <v>249</v>
       </c>
@@ -5903,20 +6062,20 @@
       <c r="J52" s="55">
         <v>0</v>
       </c>
-      <c r="K52" s="75">
+      <c r="K52" s="55">
         <v>0</v>
       </c>
       <c r="L52" s="75">
         <v>0</v>
       </c>
       <c r="M52" s="75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N52" s="75">
         <v>80</v>
       </c>
       <c r="O52" s="75">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P52" s="75">
         <v>0</v>
@@ -5942,16 +6101,19 @@
       <c r="W52" s="75">
         <v>0</v>
       </c>
-      <c r="X52" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="66">
+      <c r="X52" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="12"/>
-    </row>
-    <row r="53" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="12"/>
+    </row>
+    <row r="53" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="46" t="s">
         <v>251</v>
       </c>
@@ -5980,20 +6142,20 @@
       <c r="J53" s="55">
         <v>0</v>
       </c>
-      <c r="K53" s="75">
+      <c r="K53" s="55">
         <v>0</v>
       </c>
       <c r="L53" s="75">
         <v>0</v>
       </c>
       <c r="M53" s="75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N53" s="75">
         <v>80</v>
       </c>
       <c r="O53" s="75">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P53" s="75">
         <v>0</v>
@@ -6019,16 +6181,19 @@
       <c r="W53" s="75">
         <v>0</v>
       </c>
-      <c r="X53" s="76">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="66">
+      <c r="X53" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="76">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="12"/>
-    </row>
-    <row r="54" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="12"/>
+    </row>
+    <row r="54" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="46" t="s">
         <v>252</v>
       </c>
@@ -6059,55 +6224,58 @@
       <c r="J54" s="55">
         <v>0</v>
       </c>
-      <c r="K54" s="75">
+      <c r="K54" s="55">
+        <v>0</v>
+      </c>
+      <c r="L54" s="75">
         <v>784</v>
       </c>
-      <c r="L54" s="75">
+      <c r="M54" s="75">
         <v>528</v>
       </c>
-      <c r="M54" s="75">
+      <c r="N54" s="75">
         <v>784</v>
       </c>
-      <c r="N54" s="75">
+      <c r="O54" s="75">
         <v>1104</v>
       </c>
-      <c r="O54" s="75">
+      <c r="P54" s="75">
         <v>816</v>
       </c>
-      <c r="P54" s="75">
+      <c r="Q54" s="75">
         <v>112</v>
       </c>
-      <c r="Q54" s="75">
-        <v>0</v>
-      </c>
       <c r="R54" s="75">
+        <v>0</v>
+      </c>
+      <c r="S54" s="75">
         <v>144</v>
-      </c>
-      <c r="S54" s="75">
-        <v>384</v>
       </c>
       <c r="T54" s="75">
         <v>384</v>
       </c>
       <c r="U54" s="75">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="V54" s="75">
         <v>240</v>
       </c>
       <c r="W54" s="75">
+        <v>240</v>
+      </c>
+      <c r="X54" s="75">
         <v>512</v>
       </c>
-      <c r="X54" s="76">
+      <c r="Y54" s="76">
         <v>672</v>
       </c>
-      <c r="Y54" s="66">
+      <c r="Z54" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="12"/>
-    </row>
-    <row r="55" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="12"/>
+    </row>
+    <row r="55" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
         <v>253</v>
       </c>
@@ -6138,55 +6306,58 @@
       <c r="J55" s="55">
         <v>0</v>
       </c>
-      <c r="K55" s="75">
+      <c r="K55" s="55">
+        <v>0</v>
+      </c>
+      <c r="L55" s="75">
         <v>784</v>
       </c>
-      <c r="L55" s="75">
+      <c r="M55" s="75">
         <v>528</v>
       </c>
-      <c r="M55" s="75">
+      <c r="N55" s="75">
         <v>784</v>
       </c>
-      <c r="N55" s="75">
+      <c r="O55" s="75">
         <v>1104</v>
       </c>
-      <c r="O55" s="75">
+      <c r="P55" s="75">
         <v>816</v>
       </c>
-      <c r="P55" s="75">
+      <c r="Q55" s="75">
         <v>112</v>
       </c>
-      <c r="Q55" s="75">
-        <v>0</v>
-      </c>
       <c r="R55" s="75">
+        <v>0</v>
+      </c>
+      <c r="S55" s="75">
         <v>144</v>
-      </c>
-      <c r="S55" s="75">
-        <v>384</v>
       </c>
       <c r="T55" s="75">
         <v>384</v>
       </c>
       <c r="U55" s="75">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="V55" s="75">
         <v>240</v>
       </c>
       <c r="W55" s="75">
+        <v>240</v>
+      </c>
+      <c r="X55" s="75">
         <v>512</v>
       </c>
-      <c r="X55" s="76">
+      <c r="Y55" s="76">
         <v>672</v>
       </c>
-      <c r="Y55" s="66">
+      <c r="Z55" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="12"/>
-    </row>
-    <row r="56" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="12"/>
+    </row>
+    <row r="56" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
         <v>260</v>
       </c>
@@ -6217,15 +6388,15 @@
       <c r="J56" s="55">
         <v>0</v>
       </c>
-      <c r="K56" s="75">
+      <c r="K56" s="55">
+        <v>0</v>
+      </c>
+      <c r="L56" s="75">
         <v>864</v>
       </c>
-      <c r="L56" s="75">
+      <c r="M56" s="75">
         <v>720</v>
       </c>
-      <c r="M56" s="75">
-        <v>0</v>
-      </c>
       <c r="N56" s="75">
         <v>0</v>
       </c>
@@ -6239,33 +6410,36 @@
         <v>0</v>
       </c>
       <c r="R56" s="75">
+        <v>0</v>
+      </c>
+      <c r="S56" s="75">
         <v>144</v>
       </c>
-      <c r="S56" s="75">
-        <v>0</v>
-      </c>
       <c r="T56" s="75">
+        <v>0</v>
+      </c>
+      <c r="U56" s="75">
         <v>360</v>
       </c>
-      <c r="U56" s="75">
+      <c r="V56" s="75">
         <v>504</v>
       </c>
-      <c r="V56" s="75">
+      <c r="W56" s="75">
         <v>360</v>
       </c>
-      <c r="W56" s="75">
-        <v>0</v>
-      </c>
-      <c r="X56" s="76">
+      <c r="X56" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="76">
         <v>144</v>
       </c>
-      <c r="Y56" s="66">
+      <c r="Z56" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="12"/>
-    </row>
-    <row r="57" spans="1:30" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="12"/>
+    </row>
+    <row r="57" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="71" t="s">
         <v>261</v>
       </c>
@@ -6296,15 +6470,15 @@
       <c r="J57" s="55">
         <v>0</v>
       </c>
-      <c r="K57" s="77">
+      <c r="K57" s="55">
+        <v>0</v>
+      </c>
+      <c r="L57" s="77">
         <v>880</v>
       </c>
-      <c r="L57" s="77">
+      <c r="M57" s="77">
         <v>720</v>
       </c>
-      <c r="M57" s="77">
-        <v>0</v>
-      </c>
       <c r="N57" s="77">
         <v>0</v>
       </c>
@@ -6318,40 +6492,43 @@
         <v>0</v>
       </c>
       <c r="R57" s="77">
+        <v>0</v>
+      </c>
+      <c r="S57" s="77">
         <v>160</v>
       </c>
-      <c r="S57" s="77">
-        <v>0</v>
-      </c>
       <c r="T57" s="77">
+        <v>0</v>
+      </c>
+      <c r="U57" s="77">
         <v>360</v>
       </c>
-      <c r="U57" s="77">
+      <c r="V57" s="77">
         <v>520</v>
       </c>
-      <c r="V57" s="77">
+      <c r="W57" s="77">
         <v>360</v>
       </c>
-      <c r="W57" s="77">
-        <v>0</v>
-      </c>
-      <c r="X57" s="78">
+      <c r="X57" s="77">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="78">
         <v>160</v>
       </c>
-      <c r="Y57" s="66">
+      <c r="Z57" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="12"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="AB58" s="12"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="AB59" s="12"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="12"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC58" s="12"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AC59" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AD57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.46" right="0.19" top="0.3" bottom="0.08" header="0.14000000000000001" footer="0.17"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
   <customProperties>

--- a/Forecast_W47.xlsx
+++ b/Forecast_W47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Forecast_APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609DA57-C45D-4AA7-8EFC-ACD6482B2FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F39F27-46EA-4512-A4FA-AFDD6B61D171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'4900'!$A$1:$P$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5000'!$A$1:$O$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$7:$I$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIM!$A$1:$AD$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SIM!$A$1:$AC$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Data!$A$1:$H$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SIM!$A$1:$Y$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SIM!$A$1:$X$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="282">
   <si>
     <t>Part no.</t>
   </si>
@@ -1889,13 +1889,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,15 +1905,15 @@
     <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" style="6" customWidth="1"/>
     <col min="5" max="7" width="8.44140625" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="8.44140625" style="53" customWidth="1"/>
-    <col min="12" max="25" width="10.33203125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="9" style="64" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="45.88671875" style="57" customWidth="1"/>
-    <col min="28" max="28" width="9.109375" style="12" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="13"/>
+    <col min="8" max="10" width="8.44140625" style="53" customWidth="1"/>
+    <col min="11" max="24" width="10.33203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9" style="64" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="45.88671875" style="57" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" style="12" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>280</v>
       </c>
@@ -1944,56 +1944,53 @@
       <c r="J1" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="41" t="s">
         <v>263</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" s="41" t="s">
         <v>269</v>
       </c>
+      <c r="R1" s="69" t="s">
+        <v>270</v>
+      </c>
       <c r="S1" s="69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T1" s="69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="U1" s="69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="V1" s="69" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="W1" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="X1" s="69" t="s">
         <v>277</v>
       </c>
-      <c r="Y1" s="70" t="s">
+      <c r="X1" s="70" t="s">
         <v>278</v>
       </c>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="30"/>
-    </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="30"/>
+    </row>
+    <row r="2" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>36</v>
       </c>
@@ -2022,7 +2019,7 @@
       <c r="J2" s="55">
         <v>0</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="75">
         <v>0</v>
       </c>
       <c r="L2" s="75">
@@ -2061,19 +2058,16 @@
       <c r="W2" s="75">
         <v>0</v>
       </c>
-      <c r="X2" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="66">
+      <c r="X2" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="12"/>
-    </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>38</v>
       </c>
@@ -2102,7 +2096,7 @@
       <c r="J3" s="55">
         <v>0</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="75">
         <v>0</v>
       </c>
       <c r="L3" s="75">
@@ -2141,19 +2135,16 @@
       <c r="W3" s="75">
         <v>0</v>
       </c>
-      <c r="X3" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="66">
+      <c r="X3" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="12"/>
-    </row>
-    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>21</v>
       </c>
@@ -2182,7 +2173,7 @@
       <c r="J4" s="55">
         <v>0</v>
       </c>
-      <c r="K4" s="55">
+      <c r="K4" s="75">
         <v>0</v>
       </c>
       <c r="L4" s="75">
@@ -2221,19 +2212,16 @@
       <c r="W4" s="75">
         <v>0</v>
       </c>
-      <c r="X4" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="66">
+      <c r="X4" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="12"/>
-    </row>
-    <row r="5" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>26</v>
       </c>
@@ -2262,11 +2250,11 @@
       <c r="J5" s="55">
         <v>0</v>
       </c>
-      <c r="K5" s="55">
-        <v>0</v>
+      <c r="K5" s="75">
+        <v>28</v>
       </c>
       <c r="L5" s="75">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M5" s="75">
         <v>0</v>
@@ -2301,22 +2289,19 @@
       <c r="W5" s="75">
         <v>0</v>
       </c>
-      <c r="X5" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="66">
+      <c r="X5" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="12"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-    </row>
-    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>27</v>
       </c>
@@ -2345,7 +2330,7 @@
       <c r="J6" s="55">
         <v>0</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="75">
         <v>0</v>
       </c>
       <c r="L6" s="75">
@@ -2384,19 +2369,16 @@
       <c r="W6" s="75">
         <v>0</v>
       </c>
-      <c r="X6" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="66">
+      <c r="X6" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="12"/>
-    </row>
-    <row r="7" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
@@ -2425,61 +2407,58 @@
       <c r="J7" s="55">
         <v>0</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="75">
         <v>0</v>
       </c>
       <c r="L7" s="75">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M7" s="75">
+        <v>56</v>
+      </c>
+      <c r="N7" s="75">
         <v>28</v>
       </c>
-      <c r="N7" s="75">
-        <v>56</v>
-      </c>
       <c r="O7" s="75">
+        <v>0</v>
+      </c>
+      <c r="P7" s="75">
         <v>28</v>
       </c>
-      <c r="P7" s="75">
-        <v>0</v>
-      </c>
       <c r="Q7" s="75">
+        <v>0</v>
+      </c>
+      <c r="R7" s="75">
+        <v>0</v>
+      </c>
+      <c r="S7" s="75">
+        <v>0</v>
+      </c>
+      <c r="T7" s="75">
+        <v>0</v>
+      </c>
+      <c r="U7" s="75">
         <v>28</v>
       </c>
-      <c r="R7" s="75">
-        <v>0</v>
-      </c>
-      <c r="S7" s="75">
-        <v>0</v>
-      </c>
-      <c r="T7" s="75">
-        <v>0</v>
-      </c>
-      <c r="U7" s="75">
-        <v>0</v>
-      </c>
       <c r="V7" s="75">
+        <v>0</v>
+      </c>
+      <c r="W7" s="75">
+        <v>0</v>
+      </c>
+      <c r="X7" s="76">
         <v>28</v>
       </c>
-      <c r="W7" s="75">
-        <v>0</v>
-      </c>
-      <c r="X7" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="76">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="66">
+      <c r="Y7" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="12"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="13"/>
       <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-    </row>
-    <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>29</v>
       </c>
@@ -2508,7 +2487,7 @@
       <c r="J8" s="55">
         <v>0</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="75">
         <v>0</v>
       </c>
       <c r="L8" s="75">
@@ -2547,19 +2526,16 @@
       <c r="W8" s="75">
         <v>0</v>
       </c>
-      <c r="X8" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="66">
+      <c r="X8" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="12"/>
-    </row>
-    <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>54</v>
       </c>
@@ -2586,7 +2562,7 @@
       <c r="J9" s="55">
         <v>0</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="75">
         <v>0</v>
       </c>
       <c r="L9" s="75">
@@ -2625,19 +2601,16 @@
       <c r="W9" s="75">
         <v>0</v>
       </c>
-      <c r="X9" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="66">
+      <c r="X9" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="12"/>
-    </row>
-    <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>56</v>
       </c>
@@ -2666,7 +2639,7 @@
       <c r="J10" s="55">
         <v>0</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="75">
         <v>0</v>
       </c>
       <c r="L10" s="75">
@@ -2705,19 +2678,16 @@
       <c r="W10" s="75">
         <v>0</v>
       </c>
-      <c r="X10" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="66">
+      <c r="X10" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="12"/>
-    </row>
-    <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>62</v>
       </c>
@@ -2746,7 +2716,7 @@
       <c r="J11" s="55">
         <v>0</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="75">
         <v>0</v>
       </c>
       <c r="L11" s="75">
@@ -2785,19 +2755,16 @@
       <c r="W11" s="75">
         <v>0</v>
       </c>
-      <c r="X11" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="66">
+      <c r="X11" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="12"/>
-    </row>
-    <row r="12" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46" t="s">
         <v>63</v>
       </c>
@@ -2826,7 +2793,7 @@
       <c r="J12" s="55">
         <v>0</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="75">
         <v>0</v>
       </c>
       <c r="L12" s="75">
@@ -2865,19 +2832,16 @@
       <c r="W12" s="75">
         <v>0</v>
       </c>
-      <c r="X12" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="66">
+      <c r="X12" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="12"/>
-    </row>
-    <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>68</v>
       </c>
@@ -2906,7 +2870,7 @@
       <c r="J13" s="55">
         <v>0</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="75">
         <v>0</v>
       </c>
       <c r="L13" s="75">
@@ -2945,19 +2909,16 @@
       <c r="W13" s="75">
         <v>0</v>
       </c>
-      <c r="X13" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="66">
+      <c r="X13" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="12"/>
-    </row>
-    <row r="14" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>246</v>
       </c>
@@ -2986,7 +2947,7 @@
       <c r="J14" s="55">
         <v>0</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="75">
         <v>0</v>
       </c>
       <c r="L14" s="75">
@@ -2996,51 +2957,48 @@
         <v>0</v>
       </c>
       <c r="N14" s="75">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="O14" s="75">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="P14" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="75">
+        <v>0</v>
+      </c>
+      <c r="R14" s="75">
+        <v>0</v>
+      </c>
+      <c r="S14" s="75">
+        <v>0</v>
+      </c>
+      <c r="T14" s="75">
+        <v>0</v>
+      </c>
+      <c r="U14" s="75">
         <v>144</v>
       </c>
-      <c r="Q14" s="75">
-        <v>0</v>
-      </c>
-      <c r="R14" s="75">
-        <v>0</v>
-      </c>
-      <c r="S14" s="75">
-        <v>0</v>
-      </c>
-      <c r="T14" s="75">
-        <v>0</v>
-      </c>
-      <c r="U14" s="75">
-        <v>0</v>
-      </c>
       <c r="V14" s="75">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="W14" s="75">
         <v>0</v>
       </c>
-      <c r="X14" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="66">
+      <c r="X14" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA14" s="74" t="s">
+      <c r="Z14" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="12"/>
-    </row>
-    <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
         <v>247</v>
       </c>
@@ -3069,7 +3027,7 @@
       <c r="J15" s="55">
         <v>0</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="75">
         <v>0</v>
       </c>
       <c r="L15" s="75">
@@ -3079,51 +3037,48 @@
         <v>0</v>
       </c>
       <c r="N15" s="75">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="O15" s="75">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="P15" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="75">
+        <v>0</v>
+      </c>
+      <c r="R15" s="75">
+        <v>0</v>
+      </c>
+      <c r="S15" s="75">
+        <v>0</v>
+      </c>
+      <c r="T15" s="75">
+        <v>0</v>
+      </c>
+      <c r="U15" s="75">
         <v>144</v>
       </c>
-      <c r="Q15" s="75">
-        <v>0</v>
-      </c>
-      <c r="R15" s="75">
-        <v>0</v>
-      </c>
-      <c r="S15" s="75">
-        <v>0</v>
-      </c>
-      <c r="T15" s="75">
-        <v>0</v>
-      </c>
-      <c r="U15" s="75">
-        <v>0</v>
-      </c>
       <c r="V15" s="75">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="W15" s="75">
         <v>0</v>
       </c>
-      <c r="X15" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="66">
+      <c r="X15" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA15" s="74" t="s">
+      <c r="Z15" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="12"/>
-    </row>
-    <row r="16" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>23</v>
       </c>
@@ -3152,61 +3107,58 @@
       <c r="J16" s="55">
         <v>0</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="75">
         <v>0</v>
       </c>
       <c r="L16" s="75">
         <v>0</v>
       </c>
       <c r="M16" s="75">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N16" s="75">
+        <v>0</v>
+      </c>
+      <c r="O16" s="75">
+        <v>0</v>
+      </c>
+      <c r="P16" s="75">
         <v>56</v>
       </c>
-      <c r="O16" s="75">
-        <v>0</v>
-      </c>
-      <c r="P16" s="75">
-        <v>0</v>
-      </c>
       <c r="Q16" s="75">
+        <v>0</v>
+      </c>
+      <c r="R16" s="75">
         <v>56</v>
       </c>
-      <c r="R16" s="75">
-        <v>0</v>
-      </c>
       <c r="S16" s="75">
+        <v>0</v>
+      </c>
+      <c r="T16" s="75">
+        <v>0</v>
+      </c>
+      <c r="U16" s="75">
+        <v>0</v>
+      </c>
+      <c r="V16" s="75">
+        <v>0</v>
+      </c>
+      <c r="W16" s="75">
+        <v>0</v>
+      </c>
+      <c r="X16" s="76">
         <v>56</v>
       </c>
-      <c r="T16" s="75">
-        <v>0</v>
-      </c>
-      <c r="U16" s="75">
-        <v>0</v>
-      </c>
-      <c r="V16" s="75">
-        <v>0</v>
-      </c>
-      <c r="W16" s="75">
-        <v>0</v>
-      </c>
-      <c r="X16" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="76">
-        <v>56</v>
-      </c>
-      <c r="Z16" s="66">
+      <c r="Y16" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="12"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-    </row>
-    <row r="17" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>22</v>
       </c>
@@ -3235,23 +3187,23 @@
       <c r="J17" s="55">
         <v>0</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="75">
         <v>0</v>
       </c>
       <c r="L17" s="75">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="M17" s="75">
+        <v>28</v>
+      </c>
+      <c r="N17" s="75">
+        <v>0</v>
+      </c>
+      <c r="O17" s="75">
         <v>168</v>
       </c>
-      <c r="N17" s="75">
-        <v>28</v>
-      </c>
-      <c r="O17" s="75">
-        <v>0</v>
-      </c>
       <c r="P17" s="75">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="75">
         <v>0</v>
@@ -3269,27 +3221,24 @@
         <v>0</v>
       </c>
       <c r="V17" s="75">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="W17" s="75">
-        <v>112</v>
-      </c>
-      <c r="X17" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="66">
+        <v>0</v>
+      </c>
+      <c r="X17" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="12"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="13"/>
       <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-    </row>
-    <row r="18" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>24</v>
       </c>
@@ -3320,7 +3269,7 @@
       <c r="J18" s="55">
         <v>0</v>
       </c>
-      <c r="K18" s="55">
+      <c r="K18" s="75">
         <v>0</v>
       </c>
       <c r="L18" s="75">
@@ -3359,22 +3308,19 @@
       <c r="W18" s="75">
         <v>0</v>
       </c>
-      <c r="X18" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="66">
+      <c r="X18" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="12"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-    </row>
-    <row r="19" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>16</v>
       </c>
@@ -3403,61 +3349,58 @@
       <c r="J19" s="55">
         <v>0</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="75">
         <v>0</v>
       </c>
       <c r="L19" s="75">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="M19" s="75">
         <v>196</v>
       </c>
       <c r="N19" s="75">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="O19" s="75">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="P19" s="75">
         <v>112</v>
       </c>
       <c r="Q19" s="75">
+        <v>0</v>
+      </c>
+      <c r="R19" s="75">
+        <v>0</v>
+      </c>
+      <c r="S19" s="75">
+        <v>0</v>
+      </c>
+      <c r="T19" s="75">
+        <v>0</v>
+      </c>
+      <c r="U19" s="75">
         <v>112</v>
-      </c>
-      <c r="R19" s="75">
-        <v>0</v>
-      </c>
-      <c r="S19" s="75">
-        <v>0</v>
-      </c>
-      <c r="T19" s="75">
-        <v>0</v>
-      </c>
-      <c r="U19" s="75">
-        <v>0</v>
       </c>
       <c r="V19" s="75">
         <v>112</v>
       </c>
       <c r="W19" s="75">
-        <v>112</v>
-      </c>
-      <c r="X19" s="75">
         <v>196</v>
       </c>
-      <c r="Y19" s="76">
+      <c r="X19" s="76">
         <v>308</v>
       </c>
-      <c r="Z19" s="66">
+      <c r="Y19" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="12"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-    </row>
-    <row r="20" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>25</v>
       </c>
@@ -3486,7 +3429,7 @@
       <c r="J20" s="55">
         <v>0</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="75">
         <v>0</v>
       </c>
       <c r="L20" s="75">
@@ -3499,45 +3442,42 @@
         <v>0</v>
       </c>
       <c r="O20" s="75">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="P20" s="75">
         <v>56</v>
       </c>
       <c r="Q20" s="75">
+        <v>0</v>
+      </c>
+      <c r="R20" s="75">
+        <v>0</v>
+      </c>
+      <c r="S20" s="75">
+        <v>0</v>
+      </c>
+      <c r="T20" s="75">
         <v>56</v>
       </c>
-      <c r="R20" s="75">
-        <v>0</v>
-      </c>
-      <c r="S20" s="75">
-        <v>0</v>
-      </c>
-      <c r="T20" s="75">
-        <v>0</v>
-      </c>
       <c r="U20" s="75">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="V20" s="75">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="W20" s="75">
-        <v>0</v>
-      </c>
-      <c r="X20" s="75">
         <v>112</v>
       </c>
-      <c r="Y20" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="66">
+      <c r="X20" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="12"/>
-    </row>
-    <row r="21" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="12"/>
+    </row>
+    <row r="21" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
         <v>28</v>
       </c>
@@ -3564,7 +3504,7 @@
       <c r="J21" s="55">
         <v>0</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="75">
         <v>0</v>
       </c>
       <c r="L21" s="75">
@@ -3577,48 +3517,45 @@
         <v>0</v>
       </c>
       <c r="O21" s="75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P21" s="75">
         <v>12</v>
       </c>
       <c r="Q21" s="75">
+        <v>0</v>
+      </c>
+      <c r="R21" s="75">
+        <v>0</v>
+      </c>
+      <c r="S21" s="75">
+        <v>0</v>
+      </c>
+      <c r="T21" s="75">
         <v>12</v>
       </c>
-      <c r="R21" s="75">
-        <v>0</v>
-      </c>
-      <c r="S21" s="75">
-        <v>0</v>
-      </c>
-      <c r="T21" s="75">
-        <v>0</v>
-      </c>
       <c r="U21" s="75">
+        <v>0</v>
+      </c>
+      <c r="V21" s="75">
+        <v>0</v>
+      </c>
+      <c r="W21" s="75">
+        <v>96</v>
+      </c>
+      <c r="X21" s="76">
         <v>12</v>
       </c>
-      <c r="V21" s="75">
-        <v>0</v>
-      </c>
-      <c r="W21" s="75">
-        <v>0</v>
-      </c>
-      <c r="X21" s="75">
-        <v>96</v>
-      </c>
-      <c r="Y21" s="76">
-        <v>12</v>
-      </c>
-      <c r="Z21" s="66">
+      <c r="Y21" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="12"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-    </row>
-    <row r="22" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>19</v>
       </c>
@@ -3645,23 +3582,23 @@
       <c r="J22" s="55">
         <v>0</v>
       </c>
-      <c r="K22" s="55">
-        <v>0</v>
+      <c r="K22" s="75">
+        <v>448</v>
       </c>
       <c r="L22" s="75">
-        <v>448</v>
+        <v>308</v>
       </c>
       <c r="M22" s="75">
-        <v>308</v>
+        <v>588</v>
       </c>
       <c r="N22" s="75">
-        <v>588</v>
+        <v>1120</v>
       </c>
       <c r="O22" s="75">
-        <v>1120</v>
+        <v>672</v>
       </c>
       <c r="P22" s="75">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="75">
         <v>0</v>
@@ -3684,22 +3621,19 @@
       <c r="W22" s="75">
         <v>0</v>
       </c>
-      <c r="X22" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="66">
+      <c r="X22" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="12"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-    </row>
-    <row r="23" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>20</v>
       </c>
@@ -3728,7 +3662,7 @@
       <c r="J23" s="55">
         <v>0</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="75">
         <v>0</v>
       </c>
       <c r="L23" s="75">
@@ -3750,36 +3684,33 @@
         <v>0</v>
       </c>
       <c r="R23" s="75">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="S23" s="75">
-        <v>168</v>
+        <v>392</v>
       </c>
       <c r="T23" s="75">
         <v>392</v>
       </c>
       <c r="U23" s="75">
-        <v>392</v>
+        <v>168</v>
       </c>
       <c r="V23" s="75">
         <v>168</v>
       </c>
       <c r="W23" s="75">
-        <v>168</v>
-      </c>
-      <c r="X23" s="75">
         <v>336</v>
       </c>
-      <c r="Y23" s="76">
+      <c r="X23" s="76">
         <v>392</v>
       </c>
-      <c r="Z23" s="66">
+      <c r="Y23" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="12"/>
-    </row>
-    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="12"/>
+    </row>
+    <row r="24" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>30</v>
       </c>
@@ -3808,11 +3739,11 @@
       <c r="J24" s="55">
         <v>0</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="75">
         <v>0</v>
       </c>
       <c r="L24" s="75">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M24" s="75">
         <v>180</v>
@@ -3824,7 +3755,7 @@
         <v>180</v>
       </c>
       <c r="P24" s="75">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="75">
         <v>0</v>
@@ -3847,19 +3778,16 @@
       <c r="W24" s="75">
         <v>0</v>
       </c>
-      <c r="X24" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="66">
+      <c r="X24" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="12"/>
-    </row>
-    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="12"/>
+    </row>
+    <row r="25" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>32</v>
       </c>
@@ -3888,11 +3816,11 @@
       <c r="J25" s="55">
         <v>0</v>
       </c>
-      <c r="K25" s="55">
+      <c r="K25" s="75">
         <v>0</v>
       </c>
       <c r="L25" s="75">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="M25" s="75">
         <v>196</v>
@@ -3904,7 +3832,7 @@
         <v>196</v>
       </c>
       <c r="P25" s="75">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="75">
         <v>0</v>
@@ -3927,19 +3855,16 @@
       <c r="W25" s="75">
         <v>0</v>
       </c>
-      <c r="X25" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="66">
+      <c r="X25" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="12"/>
-    </row>
-    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="12"/>
+    </row>
+    <row r="26" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>39</v>
       </c>
@@ -3968,11 +3893,11 @@
       <c r="J26" s="55">
         <v>0</v>
       </c>
-      <c r="K26" s="55">
-        <v>0</v>
+      <c r="K26" s="75">
+        <v>48</v>
       </c>
       <c r="L26" s="75">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M26" s="75">
         <v>0</v>
@@ -3990,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="75">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="S26" s="75">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T26" s="75">
         <v>0</v>
@@ -4007,19 +3932,16 @@
       <c r="W26" s="75">
         <v>0</v>
       </c>
-      <c r="X26" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="66">
+      <c r="X26" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="12"/>
-    </row>
-    <row r="27" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="12"/>
+    </row>
+    <row r="27" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>41</v>
       </c>
@@ -4048,35 +3970,35 @@
       <c r="J27" s="55">
         <v>0</v>
       </c>
-      <c r="K27" s="55">
-        <v>0</v>
+      <c r="K27" s="75">
+        <v>1200</v>
       </c>
       <c r="L27" s="75">
         <v>1200</v>
       </c>
       <c r="M27" s="75">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N27" s="75">
         <v>0</v>
       </c>
       <c r="O27" s="75">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P27" s="75">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="Q27" s="75">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="R27" s="75">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="S27" s="75">
         <v>156</v>
       </c>
       <c r="T27" s="75">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="U27" s="75">
         <v>0</v>
@@ -4085,24 +4007,21 @@
         <v>0</v>
       </c>
       <c r="W27" s="75">
-        <v>0</v>
-      </c>
-      <c r="X27" s="75">
         <v>876</v>
       </c>
-      <c r="Y27" s="76">
+      <c r="X27" s="76">
         <v>84</v>
       </c>
-      <c r="Z27" s="66">
+      <c r="Y27" s="66">
         <v>1.2</v>
       </c>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="12"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-    </row>
-    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>34</v>
       </c>
@@ -4133,22 +4052,22 @@
       <c r="J28" s="55">
         <v>0</v>
       </c>
-      <c r="K28" s="55">
+      <c r="K28" s="75">
         <v>0</v>
       </c>
       <c r="L28" s="75">
         <v>0</v>
       </c>
       <c r="M28" s="75">
-        <v>0</v>
+        <f>48*21</f>
+        <v>1008</v>
       </c>
       <c r="N28" s="75">
         <f>48*21</f>
         <v>1008</v>
       </c>
       <c r="O28" s="75">
-        <f>48*21</f>
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="P28" s="75">
         <v>0</v>
@@ -4157,36 +4076,33 @@
         <v>0</v>
       </c>
       <c r="R28" s="75">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="S28" s="75">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="T28" s="75">
         <v>273</v>
       </c>
       <c r="U28" s="75">
+        <v>336</v>
+      </c>
+      <c r="V28" s="75">
+        <v>0</v>
+      </c>
+      <c r="W28" s="75">
         <v>273</v>
       </c>
-      <c r="V28" s="75">
-        <v>336</v>
-      </c>
-      <c r="W28" s="75">
-        <v>0</v>
-      </c>
-      <c r="X28" s="75">
+      <c r="X28" s="76">
         <v>273</v>
       </c>
-      <c r="Y28" s="76">
-        <v>273</v>
-      </c>
-      <c r="Z28" s="66">
+      <c r="Y28" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="12"/>
-    </row>
-    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="12"/>
+    </row>
+    <row r="29" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>42</v>
       </c>
@@ -4215,58 +4131,55 @@
       <c r="J29" s="55">
         <v>0</v>
       </c>
-      <c r="K29" s="55">
-        <v>0</v>
+      <c r="K29" s="75">
+        <v>64</v>
       </c>
       <c r="L29" s="75">
+        <v>160</v>
+      </c>
+      <c r="M29" s="75">
+        <v>480</v>
+      </c>
+      <c r="N29" s="75">
+        <v>0</v>
+      </c>
+      <c r="O29" s="75">
+        <v>0</v>
+      </c>
+      <c r="P29" s="75">
         <v>64</v>
       </c>
-      <c r="M29" s="75">
-        <v>160</v>
-      </c>
-      <c r="N29" s="75">
-        <v>480</v>
-      </c>
-      <c r="O29" s="75">
-        <v>0</v>
-      </c>
-      <c r="P29" s="75">
-        <v>0</v>
-      </c>
       <c r="Q29" s="75">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="R29" s="75">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S29" s="75">
+        <v>0</v>
+      </c>
+      <c r="T29" s="75">
+        <v>0</v>
+      </c>
+      <c r="U29" s="75">
+        <v>0</v>
+      </c>
+      <c r="V29" s="75">
         <v>80</v>
       </c>
-      <c r="T29" s="75">
-        <v>0</v>
-      </c>
-      <c r="U29" s="75">
-        <v>0</v>
-      </c>
-      <c r="V29" s="75">
-        <v>0</v>
-      </c>
       <c r="W29" s="75">
-        <v>80</v>
-      </c>
-      <c r="X29" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="66">
+        <v>0</v>
+      </c>
+      <c r="X29" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="12"/>
-    </row>
-    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="12"/>
+    </row>
+    <row r="30" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>254</v>
       </c>
@@ -4293,58 +4206,55 @@
       <c r="J30" s="55">
         <v>0</v>
       </c>
-      <c r="K30" s="55">
-        <v>0</v>
+      <c r="K30" s="75">
+        <v>2304</v>
       </c>
       <c r="L30" s="75">
+        <v>2352</v>
+      </c>
+      <c r="M30" s="75">
         <v>2304</v>
       </c>
-      <c r="M30" s="75">
-        <v>2352</v>
-      </c>
       <c r="N30" s="75">
-        <v>2304</v>
+        <v>1960</v>
       </c>
       <c r="O30" s="75">
-        <v>1960</v>
+        <v>544</v>
       </c>
       <c r="P30" s="75">
-        <v>544</v>
+        <v>1144</v>
       </c>
       <c r="Q30" s="75">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="R30" s="75">
-        <v>0</v>
+        <v>1184</v>
       </c>
       <c r="S30" s="75">
-        <v>1184</v>
+        <v>1048</v>
       </c>
       <c r="T30" s="75">
-        <v>1048</v>
+        <v>1168</v>
       </c>
       <c r="U30" s="75">
-        <v>1168</v>
+        <v>976</v>
       </c>
       <c r="V30" s="75">
-        <v>976</v>
+        <v>1624</v>
       </c>
       <c r="W30" s="75">
-        <v>1624</v>
-      </c>
-      <c r="X30" s="75">
         <v>1384</v>
       </c>
-      <c r="Y30" s="76">
+      <c r="X30" s="76">
         <v>1528</v>
       </c>
-      <c r="Z30" s="66">
+      <c r="Y30" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="12"/>
-    </row>
-    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="12"/>
+    </row>
+    <row r="31" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>255</v>
       </c>
@@ -4373,58 +4283,55 @@
       <c r="J31" s="55">
         <v>0</v>
       </c>
-      <c r="K31" s="55">
-        <v>0</v>
+      <c r="K31" s="75">
+        <v>2304</v>
       </c>
       <c r="L31" s="75">
+        <v>2352</v>
+      </c>
+      <c r="M31" s="75">
         <v>2304</v>
       </c>
-      <c r="M31" s="75">
-        <v>2352</v>
-      </c>
       <c r="N31" s="75">
-        <v>2304</v>
+        <v>1956</v>
       </c>
       <c r="O31" s="75">
-        <v>1956</v>
+        <v>540</v>
       </c>
       <c r="P31" s="75">
-        <v>540</v>
+        <v>1140</v>
       </c>
       <c r="Q31" s="75">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="R31" s="75">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="S31" s="75">
-        <v>1188</v>
+        <v>1056</v>
       </c>
       <c r="T31" s="75">
-        <v>1056</v>
+        <v>1176</v>
       </c>
       <c r="U31" s="75">
-        <v>1176</v>
+        <v>984</v>
       </c>
       <c r="V31" s="75">
-        <v>984</v>
+        <v>1632</v>
       </c>
       <c r="W31" s="75">
-        <v>1632</v>
-      </c>
-      <c r="X31" s="75">
         <v>1392</v>
       </c>
-      <c r="Y31" s="76">
+      <c r="X31" s="76">
         <v>1536</v>
       </c>
-      <c r="Z31" s="66">
+      <c r="Y31" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="12"/>
-    </row>
-    <row r="32" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="12"/>
+    </row>
+    <row r="32" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>244</v>
       </c>
@@ -4449,58 +4356,55 @@
       <c r="J32" s="55">
         <v>0</v>
       </c>
-      <c r="K32" s="55">
-        <v>0</v>
+      <c r="K32" s="75">
+        <v>992</v>
       </c>
       <c r="L32" s="75">
-        <v>992</v>
+        <v>784</v>
       </c>
       <c r="M32" s="75">
         <v>784</v>
       </c>
       <c r="N32" s="75">
-        <v>784</v>
+        <v>992</v>
       </c>
       <c r="O32" s="75">
+        <v>1872</v>
+      </c>
+      <c r="P32" s="75">
+        <v>1760</v>
+      </c>
+      <c r="Q32" s="75">
+        <v>0</v>
+      </c>
+      <c r="R32" s="75">
         <v>992</v>
       </c>
-      <c r="P32" s="75">
-        <v>1872</v>
-      </c>
-      <c r="Q32" s="75">
-        <v>1760</v>
-      </c>
-      <c r="R32" s="75">
-        <v>0</v>
-      </c>
       <c r="S32" s="75">
-        <v>992</v>
+        <v>2320</v>
       </c>
       <c r="T32" s="75">
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="U32" s="75">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="V32" s="75">
         <v>1104</v>
       </c>
       <c r="W32" s="75">
-        <v>1104</v>
-      </c>
-      <c r="X32" s="75">
         <v>1872</v>
       </c>
-      <c r="Y32" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="66">
+      <c r="X32" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="12"/>
-    </row>
-    <row r="33" spans="1:31" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="12"/>
+    </row>
+    <row r="33" spans="1:30" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
         <v>258</v>
       </c>
@@ -4523,61 +4427,58 @@
       <c r="J33" s="55">
         <v>0</v>
       </c>
-      <c r="K33" s="55">
-        <v>0</v>
+      <c r="K33" s="75">
+        <v>1000</v>
       </c>
       <c r="L33" s="75">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="M33" s="75">
         <v>780</v>
       </c>
       <c r="N33" s="75">
-        <v>780</v>
+        <v>1000</v>
       </c>
       <c r="O33" s="75">
+        <v>1880</v>
+      </c>
+      <c r="P33" s="75">
+        <v>1760</v>
+      </c>
+      <c r="Q33" s="75">
+        <v>0</v>
+      </c>
+      <c r="R33" s="75">
         <v>1000</v>
       </c>
-      <c r="P33" s="75">
-        <v>1880</v>
-      </c>
-      <c r="Q33" s="75">
-        <v>1760</v>
-      </c>
-      <c r="R33" s="75">
-        <v>0</v>
-      </c>
       <c r="S33" s="75">
-        <v>1000</v>
+        <v>2320</v>
       </c>
       <c r="T33" s="75">
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="U33" s="75">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="V33" s="75">
         <v>1100</v>
       </c>
       <c r="W33" s="75">
-        <v>1100</v>
-      </c>
-      <c r="X33" s="75">
         <v>1880</v>
       </c>
-      <c r="Y33" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="66">
+      <c r="X33" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA33" s="74" t="s">
+      <c r="Z33" s="74" t="s">
         <v>274</v>
       </c>
+      <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-    </row>
-    <row r="34" spans="1:31" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:30" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="59" t="s">
         <v>256</v>
       </c>
@@ -4600,61 +4501,58 @@
       <c r="J34" s="55">
         <v>0</v>
       </c>
-      <c r="K34" s="55">
-        <v>0</v>
+      <c r="K34" s="75">
+        <v>1008</v>
       </c>
       <c r="L34" s="75">
-        <v>1008</v>
+        <v>792</v>
       </c>
       <c r="M34" s="75">
         <v>792</v>
       </c>
       <c r="N34" s="75">
-        <v>792</v>
+        <v>1008</v>
       </c>
       <c r="O34" s="75">
+        <v>1872</v>
+      </c>
+      <c r="P34" s="75">
+        <v>1776</v>
+      </c>
+      <c r="Q34" s="75">
+        <v>0</v>
+      </c>
+      <c r="R34" s="75">
         <v>1008</v>
       </c>
-      <c r="P34" s="75">
-        <v>1872</v>
-      </c>
-      <c r="Q34" s="75">
-        <v>1776</v>
-      </c>
-      <c r="R34" s="75">
-        <v>0</v>
-      </c>
       <c r="S34" s="75">
-        <v>1008</v>
+        <v>2328</v>
       </c>
       <c r="T34" s="75">
-        <v>2328</v>
+        <v>0</v>
       </c>
       <c r="U34" s="75">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="V34" s="75">
         <v>1104</v>
       </c>
       <c r="W34" s="75">
-        <v>1104</v>
-      </c>
-      <c r="X34" s="75">
         <v>1872</v>
       </c>
-      <c r="Y34" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="66">
+      <c r="X34" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA34" s="74" t="s">
+      <c r="Z34" s="74" t="s">
         <v>274</v>
       </c>
+      <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-    </row>
-    <row r="35" spans="1:31" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:30" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="59" t="s">
         <v>257</v>
       </c>
@@ -4677,61 +4575,58 @@
       <c r="J35" s="55">
         <v>0</v>
       </c>
-      <c r="K35" s="55">
-        <v>0</v>
+      <c r="K35" s="75">
+        <v>1008</v>
       </c>
       <c r="L35" s="75">
-        <v>1008</v>
+        <v>792</v>
       </c>
       <c r="M35" s="75">
         <v>792</v>
       </c>
       <c r="N35" s="75">
-        <v>792</v>
+        <v>1008</v>
       </c>
       <c r="O35" s="75">
+        <v>1872</v>
+      </c>
+      <c r="P35" s="75">
+        <v>1776</v>
+      </c>
+      <c r="Q35" s="75">
+        <v>0</v>
+      </c>
+      <c r="R35" s="75">
         <v>1008</v>
       </c>
-      <c r="P35" s="75">
-        <v>1872</v>
-      </c>
-      <c r="Q35" s="75">
-        <v>1776</v>
-      </c>
-      <c r="R35" s="75">
-        <v>0</v>
-      </c>
       <c r="S35" s="75">
-        <v>1008</v>
+        <v>2328</v>
       </c>
       <c r="T35" s="75">
-        <v>2328</v>
+        <v>0</v>
       </c>
       <c r="U35" s="75">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="V35" s="75">
         <v>1104</v>
       </c>
       <c r="W35" s="75">
-        <v>1104</v>
-      </c>
-      <c r="X35" s="75">
         <v>1872</v>
       </c>
-      <c r="Y35" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="66">
+      <c r="X35" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="66">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA35" s="74" t="s">
+      <c r="Z35" s="74" t="s">
         <v>274</v>
       </c>
+      <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-    </row>
-    <row r="36" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>61</v>
       </c>
@@ -4760,7 +4655,7 @@
       <c r="J36" s="55">
         <v>0</v>
       </c>
-      <c r="K36" s="55">
+      <c r="K36" s="75">
         <v>0</v>
       </c>
       <c r="L36" s="75">
@@ -4799,19 +4694,16 @@
       <c r="W36" s="75">
         <v>0</v>
       </c>
-      <c r="X36" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="66">
+      <c r="X36" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="12"/>
-    </row>
-    <row r="37" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="12"/>
+    </row>
+    <row r="37" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>46</v>
       </c>
@@ -4840,7 +4732,7 @@
       <c r="J37" s="55">
         <v>0</v>
       </c>
-      <c r="K37" s="55">
+      <c r="K37" s="75">
         <v>0</v>
       </c>
       <c r="L37" s="75">
@@ -4850,48 +4742,45 @@
         <v>0</v>
       </c>
       <c r="N37" s="75">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O37" s="75">
+        <v>80</v>
+      </c>
+      <c r="P37" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="75">
+        <v>0</v>
+      </c>
+      <c r="R37" s="75">
+        <v>80</v>
+      </c>
+      <c r="S37" s="75">
+        <v>0</v>
+      </c>
+      <c r="T37" s="75">
+        <v>0</v>
+      </c>
+      <c r="U37" s="75">
+        <v>320</v>
+      </c>
+      <c r="V37" s="75">
+        <v>0</v>
+      </c>
+      <c r="W37" s="75">
+        <v>0</v>
+      </c>
+      <c r="X37" s="76">
         <v>160</v>
       </c>
-      <c r="P37" s="75">
-        <v>80</v>
-      </c>
-      <c r="Q37" s="75">
-        <v>0</v>
-      </c>
-      <c r="R37" s="75">
-        <v>0</v>
-      </c>
-      <c r="S37" s="75">
-        <v>80</v>
-      </c>
-      <c r="T37" s="75">
-        <v>0</v>
-      </c>
-      <c r="U37" s="75">
-        <v>0</v>
-      </c>
-      <c r="V37" s="75">
-        <v>320</v>
-      </c>
-      <c r="W37" s="75">
-        <v>0</v>
-      </c>
-      <c r="X37" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="76">
-        <v>160</v>
-      </c>
-      <c r="Z37" s="66">
+      <c r="Y37" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="12"/>
-    </row>
-    <row r="38" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="12"/>
+    </row>
+    <row r="38" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>48</v>
       </c>
@@ -4920,7 +4809,7 @@
       <c r="J38" s="55">
         <v>0</v>
       </c>
-      <c r="K38" s="55">
+      <c r="K38" s="75">
         <v>0</v>
       </c>
       <c r="L38" s="75">
@@ -4930,48 +4819,45 @@
         <v>0</v>
       </c>
       <c r="N38" s="75">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O38" s="75">
+        <v>90</v>
+      </c>
+      <c r="P38" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="75">
+        <v>0</v>
+      </c>
+      <c r="R38" s="75">
+        <v>90</v>
+      </c>
+      <c r="S38" s="75">
+        <v>0</v>
+      </c>
+      <c r="T38" s="75">
+        <v>0</v>
+      </c>
+      <c r="U38" s="75">
+        <v>330</v>
+      </c>
+      <c r="V38" s="75">
+        <v>0</v>
+      </c>
+      <c r="W38" s="75">
+        <v>0</v>
+      </c>
+      <c r="X38" s="76">
         <v>180</v>
       </c>
-      <c r="P38" s="75">
-        <v>90</v>
-      </c>
-      <c r="Q38" s="75">
-        <v>0</v>
-      </c>
-      <c r="R38" s="75">
-        <v>0</v>
-      </c>
-      <c r="S38" s="75">
-        <v>90</v>
-      </c>
-      <c r="T38" s="75">
-        <v>0</v>
-      </c>
-      <c r="U38" s="75">
-        <v>0</v>
-      </c>
-      <c r="V38" s="75">
-        <v>330</v>
-      </c>
-      <c r="W38" s="75">
-        <v>0</v>
-      </c>
-      <c r="X38" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="76">
-        <v>180</v>
-      </c>
-      <c r="Z38" s="66">
+      <c r="Y38" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="12"/>
-    </row>
-    <row r="39" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="12"/>
+    </row>
+    <row r="39" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>50</v>
       </c>
@@ -5000,11 +4886,11 @@
       <c r="J39" s="55">
         <v>0</v>
       </c>
-      <c r="K39" s="55">
+      <c r="K39" s="75">
         <v>0</v>
       </c>
       <c r="L39" s="75">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="M39" s="75">
         <v>210</v>
@@ -5016,7 +4902,7 @@
         <v>210</v>
       </c>
       <c r="P39" s="75">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="75">
         <v>0</v>
@@ -5039,19 +4925,16 @@
       <c r="W39" s="75">
         <v>0</v>
       </c>
-      <c r="X39" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="66">
+      <c r="X39" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="12"/>
-    </row>
-    <row r="40" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="12"/>
+    </row>
+    <row r="40" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>52</v>
       </c>
@@ -5082,7 +4965,7 @@
       <c r="J40" s="55">
         <v>0</v>
       </c>
-      <c r="K40" s="55">
+      <c r="K40" s="75">
         <v>0</v>
       </c>
       <c r="L40" s="75">
@@ -5121,22 +5004,19 @@
       <c r="W40" s="75">
         <v>0</v>
       </c>
-      <c r="X40" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="66">
+      <c r="X40" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA40" s="57"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="12"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="13"/>
       <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-    </row>
-    <row r="41" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>53</v>
       </c>
@@ -5165,11 +5045,11 @@
       <c r="J41" s="55">
         <v>0</v>
       </c>
-      <c r="K41" s="55">
+      <c r="K41" s="75">
         <v>0</v>
       </c>
       <c r="L41" s="75">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="M41" s="75">
         <v>216</v>
@@ -5181,7 +5061,7 @@
         <v>216</v>
       </c>
       <c r="P41" s="75">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="75">
         <v>0</v>
@@ -5204,22 +5084,19 @@
       <c r="W41" s="75">
         <v>0</v>
       </c>
-      <c r="X41" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="66">
+      <c r="X41" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA41" s="57"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="12"/>
+      <c r="Z41" s="57"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="13"/>
       <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-    </row>
-    <row r="42" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="s">
         <v>74</v>
       </c>
@@ -5248,7 +5125,7 @@
       <c r="J42" s="55">
         <v>0</v>
       </c>
-      <c r="K42" s="55">
+      <c r="K42" s="75">
         <v>0</v>
       </c>
       <c r="L42" s="75">
@@ -5287,19 +5164,16 @@
       <c r="W42" s="75">
         <v>0</v>
       </c>
-      <c r="X42" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="66">
+      <c r="X42" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="12"/>
-    </row>
-    <row r="43" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="12"/>
+    </row>
+    <row r="43" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
         <v>73</v>
       </c>
@@ -5328,7 +5202,7 @@
       <c r="J43" s="55">
         <v>0</v>
       </c>
-      <c r="K43" s="55">
+      <c r="K43" s="75">
         <v>0</v>
       </c>
       <c r="L43" s="75">
@@ -5367,19 +5241,16 @@
       <c r="W43" s="75">
         <v>0</v>
       </c>
-      <c r="X43" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="66">
+      <c r="X43" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="12"/>
-    </row>
-    <row r="44" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="12"/>
+    </row>
+    <row r="44" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>58</v>
       </c>
@@ -5408,58 +5279,55 @@
       <c r="J44" s="55">
         <v>0</v>
       </c>
-      <c r="K44" s="55">
+      <c r="K44" s="75">
         <v>0</v>
       </c>
       <c r="L44" s="75">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="M44" s="75">
         <v>256</v>
       </c>
       <c r="N44" s="75">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="O44" s="75">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="P44" s="75">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="Q44" s="75">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="R44" s="75">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S44" s="75">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="T44" s="75">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="U44" s="75">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="V44" s="75">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="W44" s="75">
-        <v>112</v>
-      </c>
-      <c r="X44" s="75">
         <v>128</v>
       </c>
-      <c r="Y44" s="76">
+      <c r="X44" s="76">
         <v>128</v>
       </c>
-      <c r="Z44" s="66">
+      <c r="Y44" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="12"/>
-    </row>
-    <row r="45" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="12"/>
+    </row>
+    <row r="45" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>59</v>
       </c>
@@ -5488,58 +5356,55 @@
       <c r="J45" s="55">
         <v>0</v>
       </c>
-      <c r="K45" s="55">
+      <c r="K45" s="75">
         <v>0</v>
       </c>
       <c r="L45" s="75">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="M45" s="75">
         <v>256</v>
       </c>
       <c r="N45" s="75">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="O45" s="75">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="P45" s="75">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="Q45" s="75">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="R45" s="75">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S45" s="75">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="T45" s="75">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="U45" s="75">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="V45" s="75">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="W45" s="75">
-        <v>112</v>
-      </c>
-      <c r="X45" s="75">
         <v>128</v>
       </c>
-      <c r="Y45" s="76">
+      <c r="X45" s="76">
         <v>128</v>
       </c>
-      <c r="Z45" s="66">
+      <c r="Y45" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="12"/>
-    </row>
-    <row r="46" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="12"/>
+    </row>
+    <row r="46" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46" t="s">
         <v>64</v>
       </c>
@@ -5568,58 +5433,55 @@
       <c r="J46" s="55">
         <v>0</v>
       </c>
-      <c r="K46" s="55">
-        <v>0</v>
+      <c r="K46" s="75">
+        <v>160</v>
       </c>
       <c r="L46" s="75">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M46" s="75">
+        <v>0</v>
+      </c>
+      <c r="N46" s="75">
         <v>80</v>
       </c>
-      <c r="N46" s="75">
-        <v>0</v>
-      </c>
       <c r="O46" s="75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P46" s="75">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q46" s="75">
+        <v>0</v>
+      </c>
+      <c r="R46" s="75">
+        <v>272</v>
+      </c>
+      <c r="S46" s="75">
+        <v>64</v>
+      </c>
+      <c r="T46" s="75">
+        <v>0</v>
+      </c>
+      <c r="U46" s="75">
+        <v>0</v>
+      </c>
+      <c r="V46" s="75">
         <v>16</v>
       </c>
-      <c r="R46" s="75">
-        <v>0</v>
-      </c>
-      <c r="S46" s="75">
-        <v>272</v>
-      </c>
-      <c r="T46" s="75">
-        <v>64</v>
-      </c>
-      <c r="U46" s="75">
-        <v>0</v>
-      </c>
-      <c r="V46" s="75">
-        <v>0</v>
-      </c>
       <c r="W46" s="75">
-        <v>16</v>
-      </c>
-      <c r="X46" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="66">
+        <v>0</v>
+      </c>
+      <c r="X46" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="12"/>
-    </row>
-    <row r="47" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="12"/>
+    </row>
+    <row r="47" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
         <v>66</v>
       </c>
@@ -5648,58 +5510,55 @@
       <c r="J47" s="55">
         <v>0</v>
       </c>
-      <c r="K47" s="55">
-        <v>0</v>
+      <c r="K47" s="75">
+        <v>160</v>
       </c>
       <c r="L47" s="75">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="M47" s="75">
+        <v>0</v>
+      </c>
+      <c r="N47" s="75">
         <v>80</v>
       </c>
-      <c r="N47" s="75">
-        <v>0</v>
-      </c>
       <c r="O47" s="75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P47" s="75">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q47" s="75">
+        <v>0</v>
+      </c>
+      <c r="R47" s="75">
+        <v>272</v>
+      </c>
+      <c r="S47" s="75">
+        <v>64</v>
+      </c>
+      <c r="T47" s="75">
+        <v>0</v>
+      </c>
+      <c r="U47" s="75">
+        <v>0</v>
+      </c>
+      <c r="V47" s="75">
         <v>16</v>
       </c>
-      <c r="R47" s="75">
-        <v>0</v>
-      </c>
-      <c r="S47" s="75">
-        <v>272</v>
-      </c>
-      <c r="T47" s="75">
-        <v>64</v>
-      </c>
-      <c r="U47" s="75">
-        <v>0</v>
-      </c>
-      <c r="V47" s="75">
-        <v>0</v>
-      </c>
       <c r="W47" s="75">
-        <v>16</v>
-      </c>
-      <c r="X47" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="66">
+        <v>0</v>
+      </c>
+      <c r="X47" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="12"/>
-    </row>
-    <row r="48" spans="1:31" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="12"/>
+    </row>
+    <row r="48" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>70</v>
       </c>
@@ -5730,62 +5589,59 @@
       <c r="J48" s="55">
         <v>0</v>
       </c>
-      <c r="K48" s="55">
-        <v>0</v>
-      </c>
-      <c r="L48" s="75">
+      <c r="K48" s="75">
         <f>160*3</f>
         <v>480</v>
       </c>
+      <c r="L48" s="75">
+        <v>608</v>
+      </c>
       <c r="M48" s="75">
-        <v>608</v>
+        <v>512</v>
       </c>
       <c r="N48" s="75">
-        <v>512</v>
+        <v>352</v>
       </c>
       <c r="O48" s="75">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="P48" s="75">
-        <v>464</v>
+        <v>336</v>
       </c>
       <c r="Q48" s="75">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="R48" s="75">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="S48" s="75">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="T48" s="75">
         <v>416</v>
       </c>
       <c r="U48" s="75">
-        <v>416</v>
+        <v>256</v>
       </c>
       <c r="V48" s="75">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="W48" s="75">
         <v>272</v>
       </c>
-      <c r="X48" s="75">
+      <c r="X48" s="76">
         <v>272</v>
       </c>
-      <c r="Y48" s="76">
-        <v>272</v>
-      </c>
-      <c r="Z48" s="66">
+      <c r="Y48" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="12"/>
+      <c r="Z48" s="57"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-    </row>
-    <row r="49" spans="1:31" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>72</v>
       </c>
@@ -5814,11 +5670,11 @@
       <c r="J49" s="55">
         <v>0</v>
       </c>
-      <c r="K49" s="55">
-        <v>0</v>
+      <c r="K49" s="75">
+        <v>160</v>
       </c>
       <c r="L49" s="75">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M49" s="75">
         <v>0</v>
@@ -5851,24 +5707,21 @@
         <v>0</v>
       </c>
       <c r="W49" s="75">
-        <v>0</v>
-      </c>
-      <c r="X49" s="75">
         <v>112</v>
       </c>
-      <c r="Y49" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="66">
+      <c r="X49" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="12"/>
+      <c r="Z49" s="57"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="13"/>
       <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-    </row>
-    <row r="50" spans="1:31" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:30" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="46" t="s">
         <v>71</v>
       </c>
@@ -5899,61 +5752,58 @@
       <c r="J50" s="55">
         <v>0</v>
       </c>
-      <c r="K50" s="55">
-        <v>0</v>
+      <c r="K50" s="75">
+        <v>640</v>
       </c>
       <c r="L50" s="75">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="M50" s="75">
-        <v>608</v>
+        <v>512</v>
       </c>
       <c r="N50" s="75">
-        <v>512</v>
+        <v>352</v>
       </c>
       <c r="O50" s="75">
-        <v>352</v>
+        <v>464</v>
       </c>
       <c r="P50" s="75">
-        <v>464</v>
+        <v>336</v>
       </c>
       <c r="Q50" s="75">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="R50" s="75">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="S50" s="75">
-        <v>304</v>
+        <v>416</v>
       </c>
       <c r="T50" s="75">
         <v>416</v>
       </c>
       <c r="U50" s="75">
-        <v>416</v>
+        <v>256</v>
       </c>
       <c r="V50" s="75">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="W50" s="75">
+        <v>368</v>
+      </c>
+      <c r="X50" s="76">
         <v>272</v>
       </c>
-      <c r="X50" s="75">
-        <v>368</v>
-      </c>
-      <c r="Y50" s="76">
-        <v>272</v>
-      </c>
-      <c r="Z50" s="66">
+      <c r="Y50" s="66">
         <v>1.3</v>
       </c>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="12"/>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-    </row>
-    <row r="51" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="46" t="s">
         <v>69</v>
       </c>
@@ -5982,7 +5832,7 @@
       <c r="J51" s="55">
         <v>0</v>
       </c>
-      <c r="K51" s="55">
+      <c r="K51" s="75">
         <v>0</v>
       </c>
       <c r="L51" s="75">
@@ -6021,19 +5871,16 @@
       <c r="W51" s="75">
         <v>0</v>
       </c>
-      <c r="X51" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="66">
+      <c r="X51" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="12"/>
-    </row>
-    <row r="52" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="12"/>
+    </row>
+    <row r="52" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
         <v>249</v>
       </c>
@@ -6062,20 +5909,20 @@
       <c r="J52" s="55">
         <v>0</v>
       </c>
-      <c r="K52" s="55">
+      <c r="K52" s="75">
         <v>0</v>
       </c>
       <c r="L52" s="75">
         <v>0</v>
       </c>
       <c r="M52" s="75">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N52" s="75">
         <v>80</v>
       </c>
       <c r="O52" s="75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P52" s="75">
         <v>0</v>
@@ -6101,19 +5948,16 @@
       <c r="W52" s="75">
         <v>0</v>
       </c>
-      <c r="X52" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="66">
+      <c r="X52" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="12"/>
-    </row>
-    <row r="53" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="12"/>
+    </row>
+    <row r="53" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="46" t="s">
         <v>251</v>
       </c>
@@ -6142,20 +5986,20 @@
       <c r="J53" s="55">
         <v>0</v>
       </c>
-      <c r="K53" s="55">
+      <c r="K53" s="75">
         <v>0</v>
       </c>
       <c r="L53" s="75">
         <v>0</v>
       </c>
       <c r="M53" s="75">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N53" s="75">
         <v>80</v>
       </c>
       <c r="O53" s="75">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P53" s="75">
         <v>0</v>
@@ -6181,19 +6025,16 @@
       <c r="W53" s="75">
         <v>0</v>
       </c>
-      <c r="X53" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="76">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="66">
+      <c r="X53" s="76">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="66">
         <v>1.3</v>
       </c>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="12"/>
-    </row>
-    <row r="54" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="12"/>
+    </row>
+    <row r="54" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="46" t="s">
         <v>252</v>
       </c>
@@ -6224,58 +6065,55 @@
       <c r="J54" s="55">
         <v>0</v>
       </c>
-      <c r="K54" s="55">
-        <v>0</v>
+      <c r="K54" s="75">
+        <v>784</v>
       </c>
       <c r="L54" s="75">
+        <v>528</v>
+      </c>
+      <c r="M54" s="75">
         <v>784</v>
       </c>
-      <c r="M54" s="75">
-        <v>528</v>
-      </c>
       <c r="N54" s="75">
-        <v>784</v>
+        <v>1104</v>
       </c>
       <c r="O54" s="75">
-        <v>1104</v>
+        <v>816</v>
       </c>
       <c r="P54" s="75">
-        <v>816</v>
+        <v>112</v>
       </c>
       <c r="Q54" s="75">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="R54" s="75">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="S54" s="75">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="T54" s="75">
         <v>384</v>
       </c>
       <c r="U54" s="75">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="V54" s="75">
         <v>240</v>
       </c>
       <c r="W54" s="75">
-        <v>240</v>
-      </c>
-      <c r="X54" s="75">
         <v>512</v>
       </c>
-      <c r="Y54" s="76">
+      <c r="X54" s="76">
         <v>672</v>
       </c>
-      <c r="Z54" s="66">
+      <c r="Y54" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="12"/>
-    </row>
-    <row r="55" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="12"/>
+    </row>
+    <row r="55" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
         <v>253</v>
       </c>
@@ -6306,58 +6144,55 @@
       <c r="J55" s="55">
         <v>0</v>
       </c>
-      <c r="K55" s="55">
-        <v>0</v>
+      <c r="K55" s="75">
+        <v>784</v>
       </c>
       <c r="L55" s="75">
+        <v>528</v>
+      </c>
+      <c r="M55" s="75">
         <v>784</v>
       </c>
-      <c r="M55" s="75">
-        <v>528</v>
-      </c>
       <c r="N55" s="75">
-        <v>784</v>
+        <v>1104</v>
       </c>
       <c r="O55" s="75">
-        <v>1104</v>
+        <v>816</v>
       </c>
       <c r="P55" s="75">
-        <v>816</v>
+        <v>112</v>
       </c>
       <c r="Q55" s="75">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="R55" s="75">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="S55" s="75">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="T55" s="75">
         <v>384</v>
       </c>
       <c r="U55" s="75">
-        <v>384</v>
+        <v>240</v>
       </c>
       <c r="V55" s="75">
         <v>240</v>
       </c>
       <c r="W55" s="75">
-        <v>240</v>
-      </c>
-      <c r="X55" s="75">
         <v>512</v>
       </c>
-      <c r="Y55" s="76">
+      <c r="X55" s="76">
         <v>672</v>
       </c>
-      <c r="Z55" s="66">
+      <c r="Y55" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="12"/>
-    </row>
-    <row r="56" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="12"/>
+    </row>
+    <row r="56" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
         <v>260</v>
       </c>
@@ -6388,14 +6223,14 @@
       <c r="J56" s="55">
         <v>0</v>
       </c>
-      <c r="K56" s="55">
-        <v>0</v>
+      <c r="K56" s="75">
+        <v>864</v>
       </c>
       <c r="L56" s="75">
-        <v>864</v>
+        <v>720</v>
       </c>
       <c r="M56" s="75">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="N56" s="75">
         <v>0</v>
@@ -6410,36 +6245,33 @@
         <v>0</v>
       </c>
       <c r="R56" s="75">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="S56" s="75">
+        <v>0</v>
+      </c>
+      <c r="T56" s="75">
+        <v>360</v>
+      </c>
+      <c r="U56" s="75">
+        <v>504</v>
+      </c>
+      <c r="V56" s="75">
+        <v>360</v>
+      </c>
+      <c r="W56" s="75">
+        <v>0</v>
+      </c>
+      <c r="X56" s="76">
         <v>144</v>
       </c>
-      <c r="T56" s="75">
-        <v>0</v>
-      </c>
-      <c r="U56" s="75">
-        <v>360</v>
-      </c>
-      <c r="V56" s="75">
-        <v>504</v>
-      </c>
-      <c r="W56" s="75">
-        <v>360</v>
-      </c>
-      <c r="X56" s="75">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="76">
-        <v>144</v>
-      </c>
-      <c r="Z56" s="66">
+      <c r="Y56" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="12"/>
-    </row>
-    <row r="57" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="12"/>
+    </row>
+    <row r="57" spans="1:30" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="71" t="s">
         <v>261</v>
       </c>
@@ -6470,14 +6302,14 @@
       <c r="J57" s="55">
         <v>0</v>
       </c>
-      <c r="K57" s="55">
-        <v>0</v>
+      <c r="K57" s="77">
+        <v>880</v>
       </c>
       <c r="L57" s="77">
-        <v>880</v>
+        <v>720</v>
       </c>
       <c r="M57" s="77">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="N57" s="77">
         <v>0</v>
@@ -6492,43 +6324,40 @@
         <v>0</v>
       </c>
       <c r="R57" s="77">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S57" s="77">
+        <v>0</v>
+      </c>
+      <c r="T57" s="77">
+        <v>360</v>
+      </c>
+      <c r="U57" s="77">
+        <v>520</v>
+      </c>
+      <c r="V57" s="77">
+        <v>360</v>
+      </c>
+      <c r="W57" s="77">
+        <v>0</v>
+      </c>
+      <c r="X57" s="78">
         <v>160</v>
       </c>
-      <c r="T57" s="77">
-        <v>0</v>
-      </c>
-      <c r="U57" s="77">
-        <v>360</v>
-      </c>
-      <c r="V57" s="77">
-        <v>520</v>
-      </c>
-      <c r="W57" s="77">
-        <v>360</v>
-      </c>
-      <c r="X57" s="77">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="78">
-        <v>160</v>
-      </c>
-      <c r="Z57" s="66">
+      <c r="Y57" s="66">
         <v>1.2</v>
       </c>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="12"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AC58" s="12"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="AC59" s="12"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="12"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB58" s="12"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB59" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.46" right="0.19" top="0.3" bottom="0.08" header="0.14000000000000001" footer="0.17"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
   <customProperties>
